--- a/combined_model.xlsx
+++ b/combined_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF5E92-20DE-F846-BA77-CE97818048FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1554B539-3395-5246-ABCB-0FD7BC0DBA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:UR124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6901,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="49">
         <v>1</v>
@@ -23319,7 +23319,7 @@
         <v>28</v>
       </c>
       <c r="D40" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="49">
         <v>1</v>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="C46" s="49"/>
       <c r="D46" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="49">
         <v>1</v>
@@ -37339,7 +37339,7 @@
         <v>97</v>
       </c>
       <c r="D65" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="49">
         <v>1</v>
@@ -43759,7 +43759,7 @@
         <v>43</v>
       </c>
       <c r="D76" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="49">
         <v>1</v>
@@ -44489,7 +44489,7 @@
         <v>86</v>
       </c>
       <c r="D82" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="49">
         <v>1</v>
@@ -44639,7 +44639,7 @@
         <v>79</v>
       </c>
       <c r="D87" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="49">
         <v>1</v>
@@ -45401,7 +45401,7 @@
         <v>64</v>
       </c>
       <c r="D113" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="49">
         <v>1</v>
@@ -45761,7 +45761,7 @@
   <dimension ref="A1:AZ181"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/combined_model.xlsx
+++ b/combined_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1554B539-3395-5246-ABCB-0FD7BC0DBA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ABA413-FFBA-9844-BE70-C3DCCCF224AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -2279,18 +2279,6 @@
     <t>IL1_extracellular =&gt; IL1_fibroblast</t>
   </si>
   <si>
-    <t>TNFa_fibroblast =&gt; TNFa_fibroblast</t>
-  </si>
-  <si>
-    <t>IL6_macrophage ===&gt; IL6_extracellular</t>
-  </si>
-  <si>
-    <t>TNFa_macrophage ===&gt;TNFa_extracellular</t>
-  </si>
-  <si>
-    <t>IL1_macrophage ===&gt; IL1_extracellular</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
@@ -2451,6 +2439,18 @@
   </si>
   <si>
     <t>FAK</t>
+  </si>
+  <si>
+    <t>IL6_macrophage =&gt; IL6_extracellular</t>
+  </si>
+  <si>
+    <t>IL1_macrophage =&gt; IL1_extracellular</t>
+  </si>
+  <si>
+    <t>TNFa_macrophage =&gt;TNFa_extracellular</t>
+  </si>
+  <si>
+    <t>TNFa_extracellular =&gt; TNFa_fibroblast</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2584,7 @@
       <name val="SF Pro Display Regular"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2620,6 +2620,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2634,7 +2658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2753,6 +2777,36 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3138,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:UR124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7479,7 +7533,7 @@
         <v>214</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>215</v>
@@ -9252,7 +9306,7 @@
         <v>213</v>
       </c>
       <c r="I13" s="50"/>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <v>10</v>
       </c>
     </row>
@@ -16862,7 +16916,7 @@
         <v>248</v>
       </c>
       <c r="I27" s="50"/>
-      <c r="J27" s="50">
+      <c r="J27" s="49">
         <v>24</v>
       </c>
     </row>
@@ -16892,7 +16946,7 @@
         <v>251</v>
       </c>
       <c r="I28" s="50"/>
-      <c r="J28" s="50">
+      <c r="J28" s="49">
         <v>25</v>
       </c>
     </row>
@@ -18654,10 +18708,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32" s="49" t="s">
         <v>35</v>
@@ -25645,7 +25699,7 @@
         <v>183</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C44" s="49" t="s">
         <v>184</v>
@@ -29718,1757 +29772,95 @@
       <c r="UQ50"/>
       <c r="UR50"/>
     </row>
-    <row r="51" spans="1:564" s="2" customFormat="1">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:564" s="55" customFormat="1">
+      <c r="A51" s="54" t="s">
         <v>738</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="54" t="s">
         <v>739</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="49">
-        <v>0</v>
-      </c>
-      <c r="E51" s="49">
+      <c r="D51" s="54">
         <v>1</v>
       </c>
-      <c r="F51" s="49">
+      <c r="E51" s="54">
         <v>1</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="F51" s="54">
+        <v>1</v>
+      </c>
+      <c r="G51" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="49" t="s">
+      <c r="H51" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="I51" s="49"/>
+      <c r="I51" s="54"/>
       <c r="J51" s="49">
         <v>48</v>
       </c>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
-      <c r="AG51"/>
-      <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
-      <c r="AL51"/>
-      <c r="AM51"/>
-      <c r="AN51"/>
-      <c r="AO51"/>
-      <c r="AP51"/>
-      <c r="AQ51"/>
-      <c r="AR51"/>
-      <c r="AS51"/>
-      <c r="AT51"/>
-      <c r="AU51"/>
-      <c r="AV51"/>
-      <c r="AW51"/>
-      <c r="AX51"/>
-      <c r="AY51"/>
-      <c r="AZ51"/>
-      <c r="BA51"/>
-      <c r="BB51"/>
-      <c r="BC51"/>
-      <c r="BD51"/>
-      <c r="BE51"/>
-      <c r="BF51"/>
-      <c r="BG51"/>
-      <c r="BH51"/>
-      <c r="BI51"/>
-      <c r="BJ51"/>
-      <c r="BK51"/>
-      <c r="BL51"/>
-      <c r="BM51"/>
-      <c r="BN51"/>
-      <c r="BO51"/>
-      <c r="BP51"/>
-      <c r="BQ51"/>
-      <c r="BR51"/>
-      <c r="BS51"/>
-      <c r="BT51"/>
-      <c r="BU51"/>
-      <c r="BV51"/>
-      <c r="BW51"/>
-      <c r="BX51"/>
-      <c r="BY51"/>
-      <c r="BZ51"/>
-      <c r="CA51"/>
-      <c r="CB51"/>
-      <c r="CC51"/>
-      <c r="CD51"/>
-      <c r="CE51"/>
-      <c r="CF51"/>
-      <c r="CG51"/>
-      <c r="CH51"/>
-      <c r="CI51"/>
-      <c r="CJ51"/>
-      <c r="CK51"/>
-      <c r="CL51"/>
-      <c r="CM51"/>
-      <c r="CN51"/>
-      <c r="CO51"/>
-      <c r="CP51"/>
-      <c r="CQ51"/>
-      <c r="CR51"/>
-      <c r="CS51"/>
-      <c r="CT51"/>
-      <c r="CU51"/>
-      <c r="CV51"/>
-      <c r="CW51"/>
-      <c r="CX51"/>
-      <c r="CY51"/>
-      <c r="CZ51"/>
-      <c r="DA51"/>
-      <c r="DB51"/>
-      <c r="DC51"/>
-      <c r="DD51"/>
-      <c r="DE51"/>
-      <c r="DF51"/>
-      <c r="DG51"/>
-      <c r="DH51"/>
-      <c r="DI51"/>
-      <c r="DJ51"/>
-      <c r="DK51"/>
-      <c r="DL51"/>
-      <c r="DM51"/>
-      <c r="DN51"/>
-      <c r="DO51"/>
-      <c r="DP51"/>
-      <c r="DQ51"/>
-      <c r="DR51"/>
-      <c r="DS51"/>
-      <c r="DT51"/>
-      <c r="DU51"/>
-      <c r="DV51"/>
-      <c r="DW51"/>
-      <c r="DX51"/>
-      <c r="DY51"/>
-      <c r="DZ51"/>
-      <c r="EA51"/>
-      <c r="EB51"/>
-      <c r="EC51"/>
-      <c r="ED51"/>
-      <c r="EE51"/>
-      <c r="EF51"/>
-      <c r="EG51"/>
-      <c r="EH51"/>
-      <c r="EI51"/>
-      <c r="EJ51"/>
-      <c r="EK51"/>
-      <c r="EL51"/>
-      <c r="EM51"/>
-      <c r="EN51"/>
-      <c r="EO51"/>
-      <c r="EP51"/>
-      <c r="EQ51"/>
-      <c r="ER51"/>
-      <c r="ES51"/>
-      <c r="ET51"/>
-      <c r="EU51"/>
-      <c r="EV51"/>
-      <c r="EW51"/>
-      <c r="EX51"/>
-      <c r="EY51"/>
-      <c r="EZ51"/>
-      <c r="FA51"/>
-      <c r="FB51"/>
-      <c r="FC51"/>
-      <c r="FD51"/>
-      <c r="FE51"/>
-      <c r="FF51"/>
-      <c r="FG51"/>
-      <c r="FH51"/>
-      <c r="FI51"/>
-      <c r="FJ51"/>
-      <c r="FK51"/>
-      <c r="FL51"/>
-      <c r="FM51"/>
-      <c r="FN51"/>
-      <c r="FO51"/>
-      <c r="FP51"/>
-      <c r="FQ51"/>
-      <c r="FR51"/>
-      <c r="FS51"/>
-      <c r="FT51"/>
-      <c r="FU51"/>
-      <c r="FV51"/>
-      <c r="FW51"/>
-      <c r="FX51"/>
-      <c r="FY51"/>
-      <c r="FZ51"/>
-      <c r="GA51"/>
-      <c r="GB51"/>
-      <c r="GC51"/>
-      <c r="GD51"/>
-      <c r="GE51"/>
-      <c r="GF51"/>
-      <c r="GG51"/>
-      <c r="GH51"/>
-      <c r="GI51"/>
-      <c r="GJ51"/>
-      <c r="GK51"/>
-      <c r="GL51"/>
-      <c r="GM51"/>
-      <c r="GN51"/>
-      <c r="GO51"/>
-      <c r="GP51"/>
-      <c r="GQ51"/>
-      <c r="GR51"/>
-      <c r="GS51"/>
-      <c r="GT51"/>
-      <c r="GU51"/>
-      <c r="GV51"/>
-      <c r="GW51"/>
-      <c r="GX51"/>
-      <c r="GY51"/>
-      <c r="GZ51"/>
-      <c r="HA51"/>
-      <c r="HB51"/>
-      <c r="HC51"/>
-      <c r="HD51"/>
-      <c r="HE51"/>
-      <c r="HF51"/>
-      <c r="HG51"/>
-      <c r="HH51"/>
-      <c r="HI51"/>
-      <c r="HJ51"/>
-      <c r="HK51"/>
-      <c r="HL51"/>
-      <c r="HM51"/>
-      <c r="HN51"/>
-      <c r="HO51"/>
-      <c r="HP51"/>
-      <c r="HQ51"/>
-      <c r="HR51"/>
-      <c r="HS51"/>
-      <c r="HT51"/>
-      <c r="HU51"/>
-      <c r="HV51"/>
-      <c r="HW51"/>
-      <c r="HX51"/>
-      <c r="HY51"/>
-      <c r="HZ51"/>
-      <c r="IA51"/>
-      <c r="IB51"/>
-      <c r="IC51"/>
-      <c r="ID51"/>
-      <c r="IE51"/>
-      <c r="IF51"/>
-      <c r="IG51"/>
-      <c r="IH51"/>
-      <c r="II51"/>
-      <c r="IJ51"/>
-      <c r="IK51"/>
-      <c r="IL51"/>
-      <c r="IM51"/>
-      <c r="IN51"/>
-      <c r="IO51"/>
-      <c r="IP51"/>
-      <c r="IQ51"/>
-      <c r="IR51"/>
-      <c r="IS51"/>
-      <c r="IT51"/>
-      <c r="IU51"/>
-      <c r="IV51"/>
-      <c r="IW51"/>
-      <c r="IX51"/>
-      <c r="IY51"/>
-      <c r="IZ51"/>
-      <c r="JA51"/>
-      <c r="JB51"/>
-      <c r="JC51"/>
-      <c r="JD51"/>
-      <c r="JE51"/>
-      <c r="JF51"/>
-      <c r="JG51"/>
-      <c r="JH51"/>
-      <c r="JI51"/>
-      <c r="JJ51"/>
-      <c r="JK51"/>
-      <c r="JL51"/>
-      <c r="JM51"/>
-      <c r="JN51"/>
-      <c r="JO51"/>
-      <c r="JP51"/>
-      <c r="JQ51"/>
-      <c r="JR51"/>
-      <c r="JS51"/>
-      <c r="JT51"/>
-      <c r="JU51"/>
-      <c r="JV51"/>
-      <c r="JW51"/>
-      <c r="JX51"/>
-      <c r="JY51"/>
-      <c r="JZ51"/>
-      <c r="KA51"/>
-      <c r="KB51"/>
-      <c r="KC51"/>
-      <c r="KD51"/>
-      <c r="KE51"/>
-      <c r="KF51"/>
-      <c r="KG51"/>
-      <c r="KH51"/>
-      <c r="KI51"/>
-      <c r="KJ51"/>
-      <c r="KK51"/>
-      <c r="KL51"/>
-      <c r="KM51"/>
-      <c r="KN51"/>
-      <c r="KO51"/>
-      <c r="KP51"/>
-      <c r="KQ51"/>
-      <c r="KR51"/>
-      <c r="KS51"/>
-      <c r="KT51"/>
-      <c r="KU51"/>
-      <c r="KV51"/>
-      <c r="KW51"/>
-      <c r="KX51"/>
-      <c r="KY51"/>
-      <c r="KZ51"/>
-      <c r="LA51"/>
-      <c r="LB51"/>
-      <c r="LC51"/>
-      <c r="LD51"/>
-      <c r="LE51"/>
-      <c r="LF51"/>
-      <c r="LG51"/>
-      <c r="LH51"/>
-      <c r="LI51"/>
-      <c r="LJ51"/>
-      <c r="LK51"/>
-      <c r="LL51"/>
-      <c r="LM51"/>
-      <c r="LN51"/>
-      <c r="LO51"/>
-      <c r="LP51"/>
-      <c r="LQ51"/>
-      <c r="LR51"/>
-      <c r="LS51"/>
-      <c r="LT51"/>
-      <c r="LU51"/>
-      <c r="LV51"/>
-      <c r="LW51"/>
-      <c r="LX51"/>
-      <c r="LY51"/>
-      <c r="LZ51"/>
-      <c r="MA51"/>
-      <c r="MB51"/>
-      <c r="MC51"/>
-      <c r="MD51"/>
-      <c r="ME51"/>
-      <c r="MF51"/>
-      <c r="MG51"/>
-      <c r="MH51"/>
-      <c r="MI51"/>
-      <c r="MJ51"/>
-      <c r="MK51"/>
-      <c r="ML51"/>
-      <c r="MM51"/>
-      <c r="MN51"/>
-      <c r="MO51"/>
-      <c r="MP51"/>
-      <c r="MQ51"/>
-      <c r="MR51"/>
-      <c r="MS51"/>
-      <c r="MT51"/>
-      <c r="MU51"/>
-      <c r="MV51"/>
-      <c r="MW51"/>
-      <c r="MX51"/>
-      <c r="MY51"/>
-      <c r="MZ51"/>
-      <c r="NA51"/>
-      <c r="NB51"/>
-      <c r="NC51"/>
-      <c r="ND51"/>
-      <c r="NE51"/>
-      <c r="NF51"/>
-      <c r="NG51"/>
-      <c r="NH51"/>
-      <c r="NI51"/>
-      <c r="NJ51"/>
-      <c r="NK51"/>
-      <c r="NL51"/>
-      <c r="NM51"/>
-      <c r="NN51"/>
-      <c r="NO51"/>
-      <c r="NP51"/>
-      <c r="NQ51"/>
-      <c r="NR51"/>
-      <c r="NS51"/>
-      <c r="NT51"/>
-      <c r="NU51"/>
-      <c r="NV51"/>
-      <c r="NW51"/>
-      <c r="NX51"/>
-      <c r="NY51"/>
-      <c r="NZ51"/>
-      <c r="OA51"/>
-      <c r="OB51"/>
-      <c r="OC51"/>
-      <c r="OD51"/>
-      <c r="OE51"/>
-      <c r="OF51"/>
-      <c r="OG51"/>
-      <c r="OH51"/>
-      <c r="OI51"/>
-      <c r="OJ51"/>
-      <c r="OK51"/>
-      <c r="OL51"/>
-      <c r="OM51"/>
-      <c r="ON51"/>
-      <c r="OO51"/>
-      <c r="OP51"/>
-      <c r="OQ51"/>
-      <c r="OR51"/>
-      <c r="OS51"/>
-      <c r="OT51"/>
-      <c r="OU51"/>
-      <c r="OV51"/>
-      <c r="OW51"/>
-      <c r="OX51"/>
-      <c r="OY51"/>
-      <c r="OZ51"/>
-      <c r="PA51"/>
-      <c r="PB51"/>
-      <c r="PC51"/>
-      <c r="PD51"/>
-      <c r="PE51"/>
-      <c r="PF51"/>
-      <c r="PG51"/>
-      <c r="PH51"/>
-      <c r="PI51"/>
-      <c r="PJ51"/>
-      <c r="PK51"/>
-      <c r="PL51"/>
-      <c r="PM51"/>
-      <c r="PN51"/>
-      <c r="PO51"/>
-      <c r="PP51"/>
-      <c r="PQ51"/>
-      <c r="PR51"/>
-      <c r="PS51"/>
-      <c r="PT51"/>
-      <c r="PU51"/>
-      <c r="PV51"/>
-      <c r="PW51"/>
-      <c r="PX51"/>
-      <c r="PY51"/>
-      <c r="PZ51"/>
-      <c r="QA51"/>
-      <c r="QB51"/>
-      <c r="QC51"/>
-      <c r="QD51"/>
-      <c r="QE51"/>
-      <c r="QF51"/>
-      <c r="QG51"/>
-      <c r="QH51"/>
-      <c r="QI51"/>
-      <c r="QJ51"/>
-      <c r="QK51"/>
-      <c r="QL51"/>
-      <c r="QM51"/>
-      <c r="QN51"/>
-      <c r="QO51"/>
-      <c r="QP51"/>
-      <c r="QQ51"/>
-      <c r="QR51"/>
-      <c r="QS51"/>
-      <c r="QT51"/>
-      <c r="QU51"/>
-      <c r="QV51"/>
-      <c r="QW51"/>
-      <c r="QX51"/>
-      <c r="QY51"/>
-      <c r="QZ51"/>
-      <c r="RA51"/>
-      <c r="RB51"/>
-      <c r="RC51"/>
-      <c r="RD51"/>
-      <c r="RE51"/>
-      <c r="RF51"/>
-      <c r="RG51"/>
-      <c r="RH51"/>
-      <c r="RI51"/>
-      <c r="RJ51"/>
-      <c r="RK51"/>
-      <c r="RL51"/>
-      <c r="RM51"/>
-      <c r="RN51"/>
-      <c r="RO51"/>
-      <c r="RP51"/>
-      <c r="RQ51"/>
-      <c r="RR51"/>
-      <c r="RS51"/>
-      <c r="RT51"/>
-      <c r="RU51"/>
-      <c r="RV51"/>
-      <c r="RW51"/>
-      <c r="RX51"/>
-      <c r="RY51"/>
-      <c r="RZ51"/>
-      <c r="SA51"/>
-      <c r="SB51"/>
-      <c r="SC51"/>
-      <c r="SD51"/>
-      <c r="SE51"/>
-      <c r="SF51"/>
-      <c r="SG51"/>
-      <c r="SH51"/>
-      <c r="SI51"/>
-      <c r="SJ51"/>
-      <c r="SK51"/>
-      <c r="SL51"/>
-      <c r="SM51"/>
-      <c r="SN51"/>
-      <c r="SO51"/>
-      <c r="SP51"/>
-      <c r="SQ51"/>
-      <c r="SR51"/>
-      <c r="SS51"/>
-      <c r="ST51"/>
-      <c r="SU51"/>
-      <c r="SV51"/>
-      <c r="SW51"/>
-      <c r="SX51"/>
-      <c r="SY51"/>
-      <c r="SZ51"/>
-      <c r="TA51"/>
-      <c r="TB51"/>
-      <c r="TC51"/>
-      <c r="TD51"/>
-      <c r="TE51"/>
-      <c r="TF51"/>
-      <c r="TG51"/>
-      <c r="TH51"/>
-      <c r="TI51"/>
-      <c r="TJ51"/>
-      <c r="TK51"/>
-      <c r="TL51"/>
-      <c r="TM51"/>
-      <c r="TN51"/>
-      <c r="TO51"/>
-      <c r="TP51"/>
-      <c r="TQ51"/>
-      <c r="TR51"/>
-      <c r="TS51"/>
-      <c r="TT51"/>
-      <c r="TU51"/>
-      <c r="TV51"/>
-      <c r="TW51"/>
-      <c r="TX51"/>
-      <c r="TY51"/>
-      <c r="TZ51"/>
-      <c r="UA51"/>
-      <c r="UB51"/>
-      <c r="UC51"/>
-      <c r="UD51"/>
-      <c r="UE51"/>
-      <c r="UF51"/>
-      <c r="UG51"/>
-      <c r="UH51"/>
-      <c r="UI51"/>
-      <c r="UJ51"/>
-      <c r="UK51"/>
-      <c r="UL51"/>
-      <c r="UM51"/>
-      <c r="UN51"/>
-      <c r="UO51"/>
-      <c r="UP51"/>
-      <c r="UQ51"/>
-      <c r="UR51"/>
     </row>
-    <row r="52" spans="1:564" s="2" customFormat="1">
-      <c r="A52" s="49" t="s">
+    <row r="52" spans="1:564" s="57" customFormat="1">
+      <c r="A52" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="56" t="s">
         <v>745</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="56">
         <v>0</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="56">
         <v>1</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="56">
         <v>1</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="49" t="s">
+      <c r="H52" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="49"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="49">
         <v>49</v>
       </c>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52"/>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52"/>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52"/>
-      <c r="BJ52"/>
-      <c r="BK52"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52"/>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52"/>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52"/>
-      <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-      <c r="CR52"/>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
-      <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52"/>
-      <c r="DB52"/>
-      <c r="DC52"/>
-      <c r="DD52"/>
-      <c r="DE52"/>
-      <c r="DF52"/>
-      <c r="DG52"/>
-      <c r="DH52"/>
-      <c r="DI52"/>
-      <c r="DJ52"/>
-      <c r="DK52"/>
-      <c r="DL52"/>
-      <c r="DM52"/>
-      <c r="DN52"/>
-      <c r="DO52"/>
-      <c r="DP52"/>
-      <c r="DQ52"/>
-      <c r="DR52"/>
-      <c r="DS52"/>
-      <c r="DT52"/>
-      <c r="DU52"/>
-      <c r="DV52"/>
-      <c r="DW52"/>
-      <c r="DX52"/>
-      <c r="DY52"/>
-      <c r="DZ52"/>
-      <c r="EA52"/>
-      <c r="EB52"/>
-      <c r="EC52"/>
-      <c r="ED52"/>
-      <c r="EE52"/>
-      <c r="EF52"/>
-      <c r="EG52"/>
-      <c r="EH52"/>
-      <c r="EI52"/>
-      <c r="EJ52"/>
-      <c r="EK52"/>
-      <c r="EL52"/>
-      <c r="EM52"/>
-      <c r="EN52"/>
-      <c r="EO52"/>
-      <c r="EP52"/>
-      <c r="EQ52"/>
-      <c r="ER52"/>
-      <c r="ES52"/>
-      <c r="ET52"/>
-      <c r="EU52"/>
-      <c r="EV52"/>
-      <c r="EW52"/>
-      <c r="EX52"/>
-      <c r="EY52"/>
-      <c r="EZ52"/>
-      <c r="FA52"/>
-      <c r="FB52"/>
-      <c r="FC52"/>
-      <c r="FD52"/>
-      <c r="FE52"/>
-      <c r="FF52"/>
-      <c r="FG52"/>
-      <c r="FH52"/>
-      <c r="FI52"/>
-      <c r="FJ52"/>
-      <c r="FK52"/>
-      <c r="FL52"/>
-      <c r="FM52"/>
-      <c r="FN52"/>
-      <c r="FO52"/>
-      <c r="FP52"/>
-      <c r="FQ52"/>
-      <c r="FR52"/>
-      <c r="FS52"/>
-      <c r="FT52"/>
-      <c r="FU52"/>
-      <c r="FV52"/>
-      <c r="FW52"/>
-      <c r="FX52"/>
-      <c r="FY52"/>
-      <c r="FZ52"/>
-      <c r="GA52"/>
-      <c r="GB52"/>
-      <c r="GC52"/>
-      <c r="GD52"/>
-      <c r="GE52"/>
-      <c r="GF52"/>
-      <c r="GG52"/>
-      <c r="GH52"/>
-      <c r="GI52"/>
-      <c r="GJ52"/>
-      <c r="GK52"/>
-      <c r="GL52"/>
-      <c r="GM52"/>
-      <c r="GN52"/>
-      <c r="GO52"/>
-      <c r="GP52"/>
-      <c r="GQ52"/>
-      <c r="GR52"/>
-      <c r="GS52"/>
-      <c r="GT52"/>
-      <c r="GU52"/>
-      <c r="GV52"/>
-      <c r="GW52"/>
-      <c r="GX52"/>
-      <c r="GY52"/>
-      <c r="GZ52"/>
-      <c r="HA52"/>
-      <c r="HB52"/>
-      <c r="HC52"/>
-      <c r="HD52"/>
-      <c r="HE52"/>
-      <c r="HF52"/>
-      <c r="HG52"/>
-      <c r="HH52"/>
-      <c r="HI52"/>
-      <c r="HJ52"/>
-      <c r="HK52"/>
-      <c r="HL52"/>
-      <c r="HM52"/>
-      <c r="HN52"/>
-      <c r="HO52"/>
-      <c r="HP52"/>
-      <c r="HQ52"/>
-      <c r="HR52"/>
-      <c r="HS52"/>
-      <c r="HT52"/>
-      <c r="HU52"/>
-      <c r="HV52"/>
-      <c r="HW52"/>
-      <c r="HX52"/>
-      <c r="HY52"/>
-      <c r="HZ52"/>
-      <c r="IA52"/>
-      <c r="IB52"/>
-      <c r="IC52"/>
-      <c r="ID52"/>
-      <c r="IE52"/>
-      <c r="IF52"/>
-      <c r="IG52"/>
-      <c r="IH52"/>
-      <c r="II52"/>
-      <c r="IJ52"/>
-      <c r="IK52"/>
-      <c r="IL52"/>
-      <c r="IM52"/>
-      <c r="IN52"/>
-      <c r="IO52"/>
-      <c r="IP52"/>
-      <c r="IQ52"/>
-      <c r="IR52"/>
-      <c r="IS52"/>
-      <c r="IT52"/>
-      <c r="IU52"/>
-      <c r="IV52"/>
-      <c r="IW52"/>
-      <c r="IX52"/>
-      <c r="IY52"/>
-      <c r="IZ52"/>
-      <c r="JA52"/>
-      <c r="JB52"/>
-      <c r="JC52"/>
-      <c r="JD52"/>
-      <c r="JE52"/>
-      <c r="JF52"/>
-      <c r="JG52"/>
-      <c r="JH52"/>
-      <c r="JI52"/>
-      <c r="JJ52"/>
-      <c r="JK52"/>
-      <c r="JL52"/>
-      <c r="JM52"/>
-      <c r="JN52"/>
-      <c r="JO52"/>
-      <c r="JP52"/>
-      <c r="JQ52"/>
-      <c r="JR52"/>
-      <c r="JS52"/>
-      <c r="JT52"/>
-      <c r="JU52"/>
-      <c r="JV52"/>
-      <c r="JW52"/>
-      <c r="JX52"/>
-      <c r="JY52"/>
-      <c r="JZ52"/>
-      <c r="KA52"/>
-      <c r="KB52"/>
-      <c r="KC52"/>
-      <c r="KD52"/>
-      <c r="KE52"/>
-      <c r="KF52"/>
-      <c r="KG52"/>
-      <c r="KH52"/>
-      <c r="KI52"/>
-      <c r="KJ52"/>
-      <c r="KK52"/>
-      <c r="KL52"/>
-      <c r="KM52"/>
-      <c r="KN52"/>
-      <c r="KO52"/>
-      <c r="KP52"/>
-      <c r="KQ52"/>
-      <c r="KR52"/>
-      <c r="KS52"/>
-      <c r="KT52"/>
-      <c r="KU52"/>
-      <c r="KV52"/>
-      <c r="KW52"/>
-      <c r="KX52"/>
-      <c r="KY52"/>
-      <c r="KZ52"/>
-      <c r="LA52"/>
-      <c r="LB52"/>
-      <c r="LC52"/>
-      <c r="LD52"/>
-      <c r="LE52"/>
-      <c r="LF52"/>
-      <c r="LG52"/>
-      <c r="LH52"/>
-      <c r="LI52"/>
-      <c r="LJ52"/>
-      <c r="LK52"/>
-      <c r="LL52"/>
-      <c r="LM52"/>
-      <c r="LN52"/>
-      <c r="LO52"/>
-      <c r="LP52"/>
-      <c r="LQ52"/>
-      <c r="LR52"/>
-      <c r="LS52"/>
-      <c r="LT52"/>
-      <c r="LU52"/>
-      <c r="LV52"/>
-      <c r="LW52"/>
-      <c r="LX52"/>
-      <c r="LY52"/>
-      <c r="LZ52"/>
-      <c r="MA52"/>
-      <c r="MB52"/>
-      <c r="MC52"/>
-      <c r="MD52"/>
-      <c r="ME52"/>
-      <c r="MF52"/>
-      <c r="MG52"/>
-      <c r="MH52"/>
-      <c r="MI52"/>
-      <c r="MJ52"/>
-      <c r="MK52"/>
-      <c r="ML52"/>
-      <c r="MM52"/>
-      <c r="MN52"/>
-      <c r="MO52"/>
-      <c r="MP52"/>
-      <c r="MQ52"/>
-      <c r="MR52"/>
-      <c r="MS52"/>
-      <c r="MT52"/>
-      <c r="MU52"/>
-      <c r="MV52"/>
-      <c r="MW52"/>
-      <c r="MX52"/>
-      <c r="MY52"/>
-      <c r="MZ52"/>
-      <c r="NA52"/>
-      <c r="NB52"/>
-      <c r="NC52"/>
-      <c r="ND52"/>
-      <c r="NE52"/>
-      <c r="NF52"/>
-      <c r="NG52"/>
-      <c r="NH52"/>
-      <c r="NI52"/>
-      <c r="NJ52"/>
-      <c r="NK52"/>
-      <c r="NL52"/>
-      <c r="NM52"/>
-      <c r="NN52"/>
-      <c r="NO52"/>
-      <c r="NP52"/>
-      <c r="NQ52"/>
-      <c r="NR52"/>
-      <c r="NS52"/>
-      <c r="NT52"/>
-      <c r="NU52"/>
-      <c r="NV52"/>
-      <c r="NW52"/>
-      <c r="NX52"/>
-      <c r="NY52"/>
-      <c r="NZ52"/>
-      <c r="OA52"/>
-      <c r="OB52"/>
-      <c r="OC52"/>
-      <c r="OD52"/>
-      <c r="OE52"/>
-      <c r="OF52"/>
-      <c r="OG52"/>
-      <c r="OH52"/>
-      <c r="OI52"/>
-      <c r="OJ52"/>
-      <c r="OK52"/>
-      <c r="OL52"/>
-      <c r="OM52"/>
-      <c r="ON52"/>
-      <c r="OO52"/>
-      <c r="OP52"/>
-      <c r="OQ52"/>
-      <c r="OR52"/>
-      <c r="OS52"/>
-      <c r="OT52"/>
-      <c r="OU52"/>
-      <c r="OV52"/>
-      <c r="OW52"/>
-      <c r="OX52"/>
-      <c r="OY52"/>
-      <c r="OZ52"/>
-      <c r="PA52"/>
-      <c r="PB52"/>
-      <c r="PC52"/>
-      <c r="PD52"/>
-      <c r="PE52"/>
-      <c r="PF52"/>
-      <c r="PG52"/>
-      <c r="PH52"/>
-      <c r="PI52"/>
-      <c r="PJ52"/>
-      <c r="PK52"/>
-      <c r="PL52"/>
-      <c r="PM52"/>
-      <c r="PN52"/>
-      <c r="PO52"/>
-      <c r="PP52"/>
-      <c r="PQ52"/>
-      <c r="PR52"/>
-      <c r="PS52"/>
-      <c r="PT52"/>
-      <c r="PU52"/>
-      <c r="PV52"/>
-      <c r="PW52"/>
-      <c r="PX52"/>
-      <c r="PY52"/>
-      <c r="PZ52"/>
-      <c r="QA52"/>
-      <c r="QB52"/>
-      <c r="QC52"/>
-      <c r="QD52"/>
-      <c r="QE52"/>
-      <c r="QF52"/>
-      <c r="QG52"/>
-      <c r="QH52"/>
-      <c r="QI52"/>
-      <c r="QJ52"/>
-      <c r="QK52"/>
-      <c r="QL52"/>
-      <c r="QM52"/>
-      <c r="QN52"/>
-      <c r="QO52"/>
-      <c r="QP52"/>
-      <c r="QQ52"/>
-      <c r="QR52"/>
-      <c r="QS52"/>
-      <c r="QT52"/>
-      <c r="QU52"/>
-      <c r="QV52"/>
-      <c r="QW52"/>
-      <c r="QX52"/>
-      <c r="QY52"/>
-      <c r="QZ52"/>
-      <c r="RA52"/>
-      <c r="RB52"/>
-      <c r="RC52"/>
-      <c r="RD52"/>
-      <c r="RE52"/>
-      <c r="RF52"/>
-      <c r="RG52"/>
-      <c r="RH52"/>
-      <c r="RI52"/>
-      <c r="RJ52"/>
-      <c r="RK52"/>
-      <c r="RL52"/>
-      <c r="RM52"/>
-      <c r="RN52"/>
-      <c r="RO52"/>
-      <c r="RP52"/>
-      <c r="RQ52"/>
-      <c r="RR52"/>
-      <c r="RS52"/>
-      <c r="RT52"/>
-      <c r="RU52"/>
-      <c r="RV52"/>
-      <c r="RW52"/>
-      <c r="RX52"/>
-      <c r="RY52"/>
-      <c r="RZ52"/>
-      <c r="SA52"/>
-      <c r="SB52"/>
-      <c r="SC52"/>
-      <c r="SD52"/>
-      <c r="SE52"/>
-      <c r="SF52"/>
-      <c r="SG52"/>
-      <c r="SH52"/>
-      <c r="SI52"/>
-      <c r="SJ52"/>
-      <c r="SK52"/>
-      <c r="SL52"/>
-      <c r="SM52"/>
-      <c r="SN52"/>
-      <c r="SO52"/>
-      <c r="SP52"/>
-      <c r="SQ52"/>
-      <c r="SR52"/>
-      <c r="SS52"/>
-      <c r="ST52"/>
-      <c r="SU52"/>
-      <c r="SV52"/>
-      <c r="SW52"/>
-      <c r="SX52"/>
-      <c r="SY52"/>
-      <c r="SZ52"/>
-      <c r="TA52"/>
-      <c r="TB52"/>
-      <c r="TC52"/>
-      <c r="TD52"/>
-      <c r="TE52"/>
-      <c r="TF52"/>
-      <c r="TG52"/>
-      <c r="TH52"/>
-      <c r="TI52"/>
-      <c r="TJ52"/>
-      <c r="TK52"/>
-      <c r="TL52"/>
-      <c r="TM52"/>
-      <c r="TN52"/>
-      <c r="TO52"/>
-      <c r="TP52"/>
-      <c r="TQ52"/>
-      <c r="TR52"/>
-      <c r="TS52"/>
-      <c r="TT52"/>
-      <c r="TU52"/>
-      <c r="TV52"/>
-      <c r="TW52"/>
-      <c r="TX52"/>
-      <c r="TY52"/>
-      <c r="TZ52"/>
-      <c r="UA52"/>
-      <c r="UB52"/>
-      <c r="UC52"/>
-      <c r="UD52"/>
-      <c r="UE52"/>
-      <c r="UF52"/>
-      <c r="UG52"/>
-      <c r="UH52"/>
-      <c r="UI52"/>
-      <c r="UJ52"/>
-      <c r="UK52"/>
-      <c r="UL52"/>
-      <c r="UM52"/>
-      <c r="UN52"/>
-      <c r="UO52"/>
-      <c r="UP52"/>
-      <c r="UQ52"/>
-      <c r="UR52"/>
     </row>
-    <row r="53" spans="1:564" s="2" customFormat="1">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:564" s="53" customFormat="1">
+      <c r="A53" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="52" t="s">
         <v>659</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="52">
         <v>0</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="52">
         <v>1</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="52">
         <v>1</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H53" s="49" t="s">
+      <c r="H53" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="I53" s="49"/>
+      <c r="I53" s="52"/>
       <c r="J53" s="49">
         <v>50</v>
       </c>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
-      <c r="AL53"/>
-      <c r="AM53"/>
-      <c r="AN53"/>
-      <c r="AO53"/>
-      <c r="AP53"/>
-      <c r="AQ53"/>
-      <c r="AR53"/>
-      <c r="AS53"/>
-      <c r="AT53"/>
-      <c r="AU53"/>
-      <c r="AV53"/>
-      <c r="AW53"/>
-      <c r="AX53"/>
-      <c r="AY53"/>
-      <c r="AZ53"/>
-      <c r="BA53"/>
-      <c r="BB53"/>
-      <c r="BC53"/>
-      <c r="BD53"/>
-      <c r="BE53"/>
-      <c r="BF53"/>
-      <c r="BG53"/>
-      <c r="BH53"/>
-      <c r="BI53"/>
-      <c r="BJ53"/>
-      <c r="BK53"/>
-      <c r="BL53"/>
-      <c r="BM53"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-      <c r="BP53"/>
-      <c r="BQ53"/>
-      <c r="BR53"/>
-      <c r="BS53"/>
-      <c r="BT53"/>
-      <c r="BU53"/>
-      <c r="BV53"/>
-      <c r="BW53"/>
-      <c r="BX53"/>
-      <c r="BY53"/>
-      <c r="BZ53"/>
-      <c r="CA53"/>
-      <c r="CB53"/>
-      <c r="CC53"/>
-      <c r="CD53"/>
-      <c r="CE53"/>
-      <c r="CF53"/>
-      <c r="CG53"/>
-      <c r="CH53"/>
-      <c r="CI53"/>
-      <c r="CJ53"/>
-      <c r="CK53"/>
-      <c r="CL53"/>
-      <c r="CM53"/>
-      <c r="CN53"/>
-      <c r="CO53"/>
-      <c r="CP53"/>
-      <c r="CQ53"/>
-      <c r="CR53"/>
-      <c r="CS53"/>
-      <c r="CT53"/>
-      <c r="CU53"/>
-      <c r="CV53"/>
-      <c r="CW53"/>
-      <c r="CX53"/>
-      <c r="CY53"/>
-      <c r="CZ53"/>
-      <c r="DA53"/>
-      <c r="DB53"/>
-      <c r="DC53"/>
-      <c r="DD53"/>
-      <c r="DE53"/>
-      <c r="DF53"/>
-      <c r="DG53"/>
-      <c r="DH53"/>
-      <c r="DI53"/>
-      <c r="DJ53"/>
-      <c r="DK53"/>
-      <c r="DL53"/>
-      <c r="DM53"/>
-      <c r="DN53"/>
-      <c r="DO53"/>
-      <c r="DP53"/>
-      <c r="DQ53"/>
-      <c r="DR53"/>
-      <c r="DS53"/>
-      <c r="DT53"/>
-      <c r="DU53"/>
-      <c r="DV53"/>
-      <c r="DW53"/>
-      <c r="DX53"/>
-      <c r="DY53"/>
-      <c r="DZ53"/>
-      <c r="EA53"/>
-      <c r="EB53"/>
-      <c r="EC53"/>
-      <c r="ED53"/>
-      <c r="EE53"/>
-      <c r="EF53"/>
-      <c r="EG53"/>
-      <c r="EH53"/>
-      <c r="EI53"/>
-      <c r="EJ53"/>
-      <c r="EK53"/>
-      <c r="EL53"/>
-      <c r="EM53"/>
-      <c r="EN53"/>
-      <c r="EO53"/>
-      <c r="EP53"/>
-      <c r="EQ53"/>
-      <c r="ER53"/>
-      <c r="ES53"/>
-      <c r="ET53"/>
-      <c r="EU53"/>
-      <c r="EV53"/>
-      <c r="EW53"/>
-      <c r="EX53"/>
-      <c r="EY53"/>
-      <c r="EZ53"/>
-      <c r="FA53"/>
-      <c r="FB53"/>
-      <c r="FC53"/>
-      <c r="FD53"/>
-      <c r="FE53"/>
-      <c r="FF53"/>
-      <c r="FG53"/>
-      <c r="FH53"/>
-      <c r="FI53"/>
-      <c r="FJ53"/>
-      <c r="FK53"/>
-      <c r="FL53"/>
-      <c r="FM53"/>
-      <c r="FN53"/>
-      <c r="FO53"/>
-      <c r="FP53"/>
-      <c r="FQ53"/>
-      <c r="FR53"/>
-      <c r="FS53"/>
-      <c r="FT53"/>
-      <c r="FU53"/>
-      <c r="FV53"/>
-      <c r="FW53"/>
-      <c r="FX53"/>
-      <c r="FY53"/>
-      <c r="FZ53"/>
-      <c r="GA53"/>
-      <c r="GB53"/>
-      <c r="GC53"/>
-      <c r="GD53"/>
-      <c r="GE53"/>
-      <c r="GF53"/>
-      <c r="GG53"/>
-      <c r="GH53"/>
-      <c r="GI53"/>
-      <c r="GJ53"/>
-      <c r="GK53"/>
-      <c r="GL53"/>
-      <c r="GM53"/>
-      <c r="GN53"/>
-      <c r="GO53"/>
-      <c r="GP53"/>
-      <c r="GQ53"/>
-      <c r="GR53"/>
-      <c r="GS53"/>
-      <c r="GT53"/>
-      <c r="GU53"/>
-      <c r="GV53"/>
-      <c r="GW53"/>
-      <c r="GX53"/>
-      <c r="GY53"/>
-      <c r="GZ53"/>
-      <c r="HA53"/>
-      <c r="HB53"/>
-      <c r="HC53"/>
-      <c r="HD53"/>
-      <c r="HE53"/>
-      <c r="HF53"/>
-      <c r="HG53"/>
-      <c r="HH53"/>
-      <c r="HI53"/>
-      <c r="HJ53"/>
-      <c r="HK53"/>
-      <c r="HL53"/>
-      <c r="HM53"/>
-      <c r="HN53"/>
-      <c r="HO53"/>
-      <c r="HP53"/>
-      <c r="HQ53"/>
-      <c r="HR53"/>
-      <c r="HS53"/>
-      <c r="HT53"/>
-      <c r="HU53"/>
-      <c r="HV53"/>
-      <c r="HW53"/>
-      <c r="HX53"/>
-      <c r="HY53"/>
-      <c r="HZ53"/>
-      <c r="IA53"/>
-      <c r="IB53"/>
-      <c r="IC53"/>
-      <c r="ID53"/>
-      <c r="IE53"/>
-      <c r="IF53"/>
-      <c r="IG53"/>
-      <c r="IH53"/>
-      <c r="II53"/>
-      <c r="IJ53"/>
-      <c r="IK53"/>
-      <c r="IL53"/>
-      <c r="IM53"/>
-      <c r="IN53"/>
-      <c r="IO53"/>
-      <c r="IP53"/>
-      <c r="IQ53"/>
-      <c r="IR53"/>
-      <c r="IS53"/>
-      <c r="IT53"/>
-      <c r="IU53"/>
-      <c r="IV53"/>
-      <c r="IW53"/>
-      <c r="IX53"/>
-      <c r="IY53"/>
-      <c r="IZ53"/>
-      <c r="JA53"/>
-      <c r="JB53"/>
-      <c r="JC53"/>
-      <c r="JD53"/>
-      <c r="JE53"/>
-      <c r="JF53"/>
-      <c r="JG53"/>
-      <c r="JH53"/>
-      <c r="JI53"/>
-      <c r="JJ53"/>
-      <c r="JK53"/>
-      <c r="JL53"/>
-      <c r="JM53"/>
-      <c r="JN53"/>
-      <c r="JO53"/>
-      <c r="JP53"/>
-      <c r="JQ53"/>
-      <c r="JR53"/>
-      <c r="JS53"/>
-      <c r="JT53"/>
-      <c r="JU53"/>
-      <c r="JV53"/>
-      <c r="JW53"/>
-      <c r="JX53"/>
-      <c r="JY53"/>
-      <c r="JZ53"/>
-      <c r="KA53"/>
-      <c r="KB53"/>
-      <c r="KC53"/>
-      <c r="KD53"/>
-      <c r="KE53"/>
-      <c r="KF53"/>
-      <c r="KG53"/>
-      <c r="KH53"/>
-      <c r="KI53"/>
-      <c r="KJ53"/>
-      <c r="KK53"/>
-      <c r="KL53"/>
-      <c r="KM53"/>
-      <c r="KN53"/>
-      <c r="KO53"/>
-      <c r="KP53"/>
-      <c r="KQ53"/>
-      <c r="KR53"/>
-      <c r="KS53"/>
-      <c r="KT53"/>
-      <c r="KU53"/>
-      <c r="KV53"/>
-      <c r="KW53"/>
-      <c r="KX53"/>
-      <c r="KY53"/>
-      <c r="KZ53"/>
-      <c r="LA53"/>
-      <c r="LB53"/>
-      <c r="LC53"/>
-      <c r="LD53"/>
-      <c r="LE53"/>
-      <c r="LF53"/>
-      <c r="LG53"/>
-      <c r="LH53"/>
-      <c r="LI53"/>
-      <c r="LJ53"/>
-      <c r="LK53"/>
-      <c r="LL53"/>
-      <c r="LM53"/>
-      <c r="LN53"/>
-      <c r="LO53"/>
-      <c r="LP53"/>
-      <c r="LQ53"/>
-      <c r="LR53"/>
-      <c r="LS53"/>
-      <c r="LT53"/>
-      <c r="LU53"/>
-      <c r="LV53"/>
-      <c r="LW53"/>
-      <c r="LX53"/>
-      <c r="LY53"/>
-      <c r="LZ53"/>
-      <c r="MA53"/>
-      <c r="MB53"/>
-      <c r="MC53"/>
-      <c r="MD53"/>
-      <c r="ME53"/>
-      <c r="MF53"/>
-      <c r="MG53"/>
-      <c r="MH53"/>
-      <c r="MI53"/>
-      <c r="MJ53"/>
-      <c r="MK53"/>
-      <c r="ML53"/>
-      <c r="MM53"/>
-      <c r="MN53"/>
-      <c r="MO53"/>
-      <c r="MP53"/>
-      <c r="MQ53"/>
-      <c r="MR53"/>
-      <c r="MS53"/>
-      <c r="MT53"/>
-      <c r="MU53"/>
-      <c r="MV53"/>
-      <c r="MW53"/>
-      <c r="MX53"/>
-      <c r="MY53"/>
-      <c r="MZ53"/>
-      <c r="NA53"/>
-      <c r="NB53"/>
-      <c r="NC53"/>
-      <c r="ND53"/>
-      <c r="NE53"/>
-      <c r="NF53"/>
-      <c r="NG53"/>
-      <c r="NH53"/>
-      <c r="NI53"/>
-      <c r="NJ53"/>
-      <c r="NK53"/>
-      <c r="NL53"/>
-      <c r="NM53"/>
-      <c r="NN53"/>
-      <c r="NO53"/>
-      <c r="NP53"/>
-      <c r="NQ53"/>
-      <c r="NR53"/>
-      <c r="NS53"/>
-      <c r="NT53"/>
-      <c r="NU53"/>
-      <c r="NV53"/>
-      <c r="NW53"/>
-      <c r="NX53"/>
-      <c r="NY53"/>
-      <c r="NZ53"/>
-      <c r="OA53"/>
-      <c r="OB53"/>
-      <c r="OC53"/>
-      <c r="OD53"/>
-      <c r="OE53"/>
-      <c r="OF53"/>
-      <c r="OG53"/>
-      <c r="OH53"/>
-      <c r="OI53"/>
-      <c r="OJ53"/>
-      <c r="OK53"/>
-      <c r="OL53"/>
-      <c r="OM53"/>
-      <c r="ON53"/>
-      <c r="OO53"/>
-      <c r="OP53"/>
-      <c r="OQ53"/>
-      <c r="OR53"/>
-      <c r="OS53"/>
-      <c r="OT53"/>
-      <c r="OU53"/>
-      <c r="OV53"/>
-      <c r="OW53"/>
-      <c r="OX53"/>
-      <c r="OY53"/>
-      <c r="OZ53"/>
-      <c r="PA53"/>
-      <c r="PB53"/>
-      <c r="PC53"/>
-      <c r="PD53"/>
-      <c r="PE53"/>
-      <c r="PF53"/>
-      <c r="PG53"/>
-      <c r="PH53"/>
-      <c r="PI53"/>
-      <c r="PJ53"/>
-      <c r="PK53"/>
-      <c r="PL53"/>
-      <c r="PM53"/>
-      <c r="PN53"/>
-      <c r="PO53"/>
-      <c r="PP53"/>
-      <c r="PQ53"/>
-      <c r="PR53"/>
-      <c r="PS53"/>
-      <c r="PT53"/>
-      <c r="PU53"/>
-      <c r="PV53"/>
-      <c r="PW53"/>
-      <c r="PX53"/>
-      <c r="PY53"/>
-      <c r="PZ53"/>
-      <c r="QA53"/>
-      <c r="QB53"/>
-      <c r="QC53"/>
-      <c r="QD53"/>
-      <c r="QE53"/>
-      <c r="QF53"/>
-      <c r="QG53"/>
-      <c r="QH53"/>
-      <c r="QI53"/>
-      <c r="QJ53"/>
-      <c r="QK53"/>
-      <c r="QL53"/>
-      <c r="QM53"/>
-      <c r="QN53"/>
-      <c r="QO53"/>
-      <c r="QP53"/>
-      <c r="QQ53"/>
-      <c r="QR53"/>
-      <c r="QS53"/>
-      <c r="QT53"/>
-      <c r="QU53"/>
-      <c r="QV53"/>
-      <c r="QW53"/>
-      <c r="QX53"/>
-      <c r="QY53"/>
-      <c r="QZ53"/>
-      <c r="RA53"/>
-      <c r="RB53"/>
-      <c r="RC53"/>
-      <c r="RD53"/>
-      <c r="RE53"/>
-      <c r="RF53"/>
-      <c r="RG53"/>
-      <c r="RH53"/>
-      <c r="RI53"/>
-      <c r="RJ53"/>
-      <c r="RK53"/>
-      <c r="RL53"/>
-      <c r="RM53"/>
-      <c r="RN53"/>
-      <c r="RO53"/>
-      <c r="RP53"/>
-      <c r="RQ53"/>
-      <c r="RR53"/>
-      <c r="RS53"/>
-      <c r="RT53"/>
-      <c r="RU53"/>
-      <c r="RV53"/>
-      <c r="RW53"/>
-      <c r="RX53"/>
-      <c r="RY53"/>
-      <c r="RZ53"/>
-      <c r="SA53"/>
-      <c r="SB53"/>
-      <c r="SC53"/>
-      <c r="SD53"/>
-      <c r="SE53"/>
-      <c r="SF53"/>
-      <c r="SG53"/>
-      <c r="SH53"/>
-      <c r="SI53"/>
-      <c r="SJ53"/>
-      <c r="SK53"/>
-      <c r="SL53"/>
-      <c r="SM53"/>
-      <c r="SN53"/>
-      <c r="SO53"/>
-      <c r="SP53"/>
-      <c r="SQ53"/>
-      <c r="SR53"/>
-      <c r="SS53"/>
-      <c r="ST53"/>
-      <c r="SU53"/>
-      <c r="SV53"/>
-      <c r="SW53"/>
-      <c r="SX53"/>
-      <c r="SY53"/>
-      <c r="SZ53"/>
-      <c r="TA53"/>
-      <c r="TB53"/>
-      <c r="TC53"/>
-      <c r="TD53"/>
-      <c r="TE53"/>
-      <c r="TF53"/>
-      <c r="TG53"/>
-      <c r="TH53"/>
-      <c r="TI53"/>
-      <c r="TJ53"/>
-      <c r="TK53"/>
-      <c r="TL53"/>
-      <c r="TM53"/>
-      <c r="TN53"/>
-      <c r="TO53"/>
-      <c r="TP53"/>
-      <c r="TQ53"/>
-      <c r="TR53"/>
-      <c r="TS53"/>
-      <c r="TT53"/>
-      <c r="TU53"/>
-      <c r="TV53"/>
-      <c r="TW53"/>
-      <c r="TX53"/>
-      <c r="TY53"/>
-      <c r="TZ53"/>
-      <c r="UA53"/>
-      <c r="UB53"/>
-      <c r="UC53"/>
-      <c r="UD53"/>
-      <c r="UE53"/>
-      <c r="UF53"/>
-      <c r="UG53"/>
-      <c r="UH53"/>
-      <c r="UI53"/>
-      <c r="UJ53"/>
-      <c r="UK53"/>
-      <c r="UL53"/>
-      <c r="UM53"/>
-      <c r="UN53"/>
-      <c r="UO53"/>
-      <c r="UP53"/>
-      <c r="UQ53"/>
-      <c r="UR53"/>
     </row>
     <row r="54" spans="1:564" s="2" customFormat="1">
       <c r="A54" s="49" t="s">
@@ -32085,7 +30477,7 @@
         <v>115</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>662</v>
@@ -33246,1757 +31638,95 @@
       <c r="UQ57"/>
       <c r="UR57"/>
     </row>
-    <row r="58" spans="1:564" s="2" customFormat="1">
-      <c r="A58" s="49" t="s">
+    <row r="58" spans="1:564" s="55" customFormat="1">
+      <c r="A58" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="54" t="s">
         <v>740</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="49">
-        <v>0</v>
-      </c>
-      <c r="E58" s="49">
+      <c r="D58" s="54">
         <v>1</v>
       </c>
-      <c r="F58" s="49">
+      <c r="E58" s="54">
         <v>1</v>
       </c>
-      <c r="G58" s="49" t="s">
+      <c r="F58" s="54">
+        <v>1</v>
+      </c>
+      <c r="G58" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="49" t="s">
+      <c r="H58" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="49"/>
+      <c r="I58" s="54"/>
       <c r="J58" s="49">
         <v>55</v>
       </c>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-      <c r="AM58"/>
-      <c r="AN58"/>
-      <c r="AO58"/>
-      <c r="AP58"/>
-      <c r="AQ58"/>
-      <c r="AR58"/>
-      <c r="AS58"/>
-      <c r="AT58"/>
-      <c r="AU58"/>
-      <c r="AV58"/>
-      <c r="AW58"/>
-      <c r="AX58"/>
-      <c r="AY58"/>
-      <c r="AZ58"/>
-      <c r="BA58"/>
-      <c r="BB58"/>
-      <c r="BC58"/>
-      <c r="BD58"/>
-      <c r="BE58"/>
-      <c r="BF58"/>
-      <c r="BG58"/>
-      <c r="BH58"/>
-      <c r="BI58"/>
-      <c r="BJ58"/>
-      <c r="BK58"/>
-      <c r="BL58"/>
-      <c r="BM58"/>
-      <c r="BN58"/>
-      <c r="BO58"/>
-      <c r="BP58"/>
-      <c r="BQ58"/>
-      <c r="BR58"/>
-      <c r="BS58"/>
-      <c r="BT58"/>
-      <c r="BU58"/>
-      <c r="BV58"/>
-      <c r="BW58"/>
-      <c r="BX58"/>
-      <c r="BY58"/>
-      <c r="BZ58"/>
-      <c r="CA58"/>
-      <c r="CB58"/>
-      <c r="CC58"/>
-      <c r="CD58"/>
-      <c r="CE58"/>
-      <c r="CF58"/>
-      <c r="CG58"/>
-      <c r="CH58"/>
-      <c r="CI58"/>
-      <c r="CJ58"/>
-      <c r="CK58"/>
-      <c r="CL58"/>
-      <c r="CM58"/>
-      <c r="CN58"/>
-      <c r="CO58"/>
-      <c r="CP58"/>
-      <c r="CQ58"/>
-      <c r="CR58"/>
-      <c r="CS58"/>
-      <c r="CT58"/>
-      <c r="CU58"/>
-      <c r="CV58"/>
-      <c r="CW58"/>
-      <c r="CX58"/>
-      <c r="CY58"/>
-      <c r="CZ58"/>
-      <c r="DA58"/>
-      <c r="DB58"/>
-      <c r="DC58"/>
-      <c r="DD58"/>
-      <c r="DE58"/>
-      <c r="DF58"/>
-      <c r="DG58"/>
-      <c r="DH58"/>
-      <c r="DI58"/>
-      <c r="DJ58"/>
-      <c r="DK58"/>
-      <c r="DL58"/>
-      <c r="DM58"/>
-      <c r="DN58"/>
-      <c r="DO58"/>
-      <c r="DP58"/>
-      <c r="DQ58"/>
-      <c r="DR58"/>
-      <c r="DS58"/>
-      <c r="DT58"/>
-      <c r="DU58"/>
-      <c r="DV58"/>
-      <c r="DW58"/>
-      <c r="DX58"/>
-      <c r="DY58"/>
-      <c r="DZ58"/>
-      <c r="EA58"/>
-      <c r="EB58"/>
-      <c r="EC58"/>
-      <c r="ED58"/>
-      <c r="EE58"/>
-      <c r="EF58"/>
-      <c r="EG58"/>
-      <c r="EH58"/>
-      <c r="EI58"/>
-      <c r="EJ58"/>
-      <c r="EK58"/>
-      <c r="EL58"/>
-      <c r="EM58"/>
-      <c r="EN58"/>
-      <c r="EO58"/>
-      <c r="EP58"/>
-      <c r="EQ58"/>
-      <c r="ER58"/>
-      <c r="ES58"/>
-      <c r="ET58"/>
-      <c r="EU58"/>
-      <c r="EV58"/>
-      <c r="EW58"/>
-      <c r="EX58"/>
-      <c r="EY58"/>
-      <c r="EZ58"/>
-      <c r="FA58"/>
-      <c r="FB58"/>
-      <c r="FC58"/>
-      <c r="FD58"/>
-      <c r="FE58"/>
-      <c r="FF58"/>
-      <c r="FG58"/>
-      <c r="FH58"/>
-      <c r="FI58"/>
-      <c r="FJ58"/>
-      <c r="FK58"/>
-      <c r="FL58"/>
-      <c r="FM58"/>
-      <c r="FN58"/>
-      <c r="FO58"/>
-      <c r="FP58"/>
-      <c r="FQ58"/>
-      <c r="FR58"/>
-      <c r="FS58"/>
-      <c r="FT58"/>
-      <c r="FU58"/>
-      <c r="FV58"/>
-      <c r="FW58"/>
-      <c r="FX58"/>
-      <c r="FY58"/>
-      <c r="FZ58"/>
-      <c r="GA58"/>
-      <c r="GB58"/>
-      <c r="GC58"/>
-      <c r="GD58"/>
-      <c r="GE58"/>
-      <c r="GF58"/>
-      <c r="GG58"/>
-      <c r="GH58"/>
-      <c r="GI58"/>
-      <c r="GJ58"/>
-      <c r="GK58"/>
-      <c r="GL58"/>
-      <c r="GM58"/>
-      <c r="GN58"/>
-      <c r="GO58"/>
-      <c r="GP58"/>
-      <c r="GQ58"/>
-      <c r="GR58"/>
-      <c r="GS58"/>
-      <c r="GT58"/>
-      <c r="GU58"/>
-      <c r="GV58"/>
-      <c r="GW58"/>
-      <c r="GX58"/>
-      <c r="GY58"/>
-      <c r="GZ58"/>
-      <c r="HA58"/>
-      <c r="HB58"/>
-      <c r="HC58"/>
-      <c r="HD58"/>
-      <c r="HE58"/>
-      <c r="HF58"/>
-      <c r="HG58"/>
-      <c r="HH58"/>
-      <c r="HI58"/>
-      <c r="HJ58"/>
-      <c r="HK58"/>
-      <c r="HL58"/>
-      <c r="HM58"/>
-      <c r="HN58"/>
-      <c r="HO58"/>
-      <c r="HP58"/>
-      <c r="HQ58"/>
-      <c r="HR58"/>
-      <c r="HS58"/>
-      <c r="HT58"/>
-      <c r="HU58"/>
-      <c r="HV58"/>
-      <c r="HW58"/>
-      <c r="HX58"/>
-      <c r="HY58"/>
-      <c r="HZ58"/>
-      <c r="IA58"/>
-      <c r="IB58"/>
-      <c r="IC58"/>
-      <c r="ID58"/>
-      <c r="IE58"/>
-      <c r="IF58"/>
-      <c r="IG58"/>
-      <c r="IH58"/>
-      <c r="II58"/>
-      <c r="IJ58"/>
-      <c r="IK58"/>
-      <c r="IL58"/>
-      <c r="IM58"/>
-      <c r="IN58"/>
-      <c r="IO58"/>
-      <c r="IP58"/>
-      <c r="IQ58"/>
-      <c r="IR58"/>
-      <c r="IS58"/>
-      <c r="IT58"/>
-      <c r="IU58"/>
-      <c r="IV58"/>
-      <c r="IW58"/>
-      <c r="IX58"/>
-      <c r="IY58"/>
-      <c r="IZ58"/>
-      <c r="JA58"/>
-      <c r="JB58"/>
-      <c r="JC58"/>
-      <c r="JD58"/>
-      <c r="JE58"/>
-      <c r="JF58"/>
-      <c r="JG58"/>
-      <c r="JH58"/>
-      <c r="JI58"/>
-      <c r="JJ58"/>
-      <c r="JK58"/>
-      <c r="JL58"/>
-      <c r="JM58"/>
-      <c r="JN58"/>
-      <c r="JO58"/>
-      <c r="JP58"/>
-      <c r="JQ58"/>
-      <c r="JR58"/>
-      <c r="JS58"/>
-      <c r="JT58"/>
-      <c r="JU58"/>
-      <c r="JV58"/>
-      <c r="JW58"/>
-      <c r="JX58"/>
-      <c r="JY58"/>
-      <c r="JZ58"/>
-      <c r="KA58"/>
-      <c r="KB58"/>
-      <c r="KC58"/>
-      <c r="KD58"/>
-      <c r="KE58"/>
-      <c r="KF58"/>
-      <c r="KG58"/>
-      <c r="KH58"/>
-      <c r="KI58"/>
-      <c r="KJ58"/>
-      <c r="KK58"/>
-      <c r="KL58"/>
-      <c r="KM58"/>
-      <c r="KN58"/>
-      <c r="KO58"/>
-      <c r="KP58"/>
-      <c r="KQ58"/>
-      <c r="KR58"/>
-      <c r="KS58"/>
-      <c r="KT58"/>
-      <c r="KU58"/>
-      <c r="KV58"/>
-      <c r="KW58"/>
-      <c r="KX58"/>
-      <c r="KY58"/>
-      <c r="KZ58"/>
-      <c r="LA58"/>
-      <c r="LB58"/>
-      <c r="LC58"/>
-      <c r="LD58"/>
-      <c r="LE58"/>
-      <c r="LF58"/>
-      <c r="LG58"/>
-      <c r="LH58"/>
-      <c r="LI58"/>
-      <c r="LJ58"/>
-      <c r="LK58"/>
-      <c r="LL58"/>
-      <c r="LM58"/>
-      <c r="LN58"/>
-      <c r="LO58"/>
-      <c r="LP58"/>
-      <c r="LQ58"/>
-      <c r="LR58"/>
-      <c r="LS58"/>
-      <c r="LT58"/>
-      <c r="LU58"/>
-      <c r="LV58"/>
-      <c r="LW58"/>
-      <c r="LX58"/>
-      <c r="LY58"/>
-      <c r="LZ58"/>
-      <c r="MA58"/>
-      <c r="MB58"/>
-      <c r="MC58"/>
-      <c r="MD58"/>
-      <c r="ME58"/>
-      <c r="MF58"/>
-      <c r="MG58"/>
-      <c r="MH58"/>
-      <c r="MI58"/>
-      <c r="MJ58"/>
-      <c r="MK58"/>
-      <c r="ML58"/>
-      <c r="MM58"/>
-      <c r="MN58"/>
-      <c r="MO58"/>
-      <c r="MP58"/>
-      <c r="MQ58"/>
-      <c r="MR58"/>
-      <c r="MS58"/>
-      <c r="MT58"/>
-      <c r="MU58"/>
-      <c r="MV58"/>
-      <c r="MW58"/>
-      <c r="MX58"/>
-      <c r="MY58"/>
-      <c r="MZ58"/>
-      <c r="NA58"/>
-      <c r="NB58"/>
-      <c r="NC58"/>
-      <c r="ND58"/>
-      <c r="NE58"/>
-      <c r="NF58"/>
-      <c r="NG58"/>
-      <c r="NH58"/>
-      <c r="NI58"/>
-      <c r="NJ58"/>
-      <c r="NK58"/>
-      <c r="NL58"/>
-      <c r="NM58"/>
-      <c r="NN58"/>
-      <c r="NO58"/>
-      <c r="NP58"/>
-      <c r="NQ58"/>
-      <c r="NR58"/>
-      <c r="NS58"/>
-      <c r="NT58"/>
-      <c r="NU58"/>
-      <c r="NV58"/>
-      <c r="NW58"/>
-      <c r="NX58"/>
-      <c r="NY58"/>
-      <c r="NZ58"/>
-      <c r="OA58"/>
-      <c r="OB58"/>
-      <c r="OC58"/>
-      <c r="OD58"/>
-      <c r="OE58"/>
-      <c r="OF58"/>
-      <c r="OG58"/>
-      <c r="OH58"/>
-      <c r="OI58"/>
-      <c r="OJ58"/>
-      <c r="OK58"/>
-      <c r="OL58"/>
-      <c r="OM58"/>
-      <c r="ON58"/>
-      <c r="OO58"/>
-      <c r="OP58"/>
-      <c r="OQ58"/>
-      <c r="OR58"/>
-      <c r="OS58"/>
-      <c r="OT58"/>
-      <c r="OU58"/>
-      <c r="OV58"/>
-      <c r="OW58"/>
-      <c r="OX58"/>
-      <c r="OY58"/>
-      <c r="OZ58"/>
-      <c r="PA58"/>
-      <c r="PB58"/>
-      <c r="PC58"/>
-      <c r="PD58"/>
-      <c r="PE58"/>
-      <c r="PF58"/>
-      <c r="PG58"/>
-      <c r="PH58"/>
-      <c r="PI58"/>
-      <c r="PJ58"/>
-      <c r="PK58"/>
-      <c r="PL58"/>
-      <c r="PM58"/>
-      <c r="PN58"/>
-      <c r="PO58"/>
-      <c r="PP58"/>
-      <c r="PQ58"/>
-      <c r="PR58"/>
-      <c r="PS58"/>
-      <c r="PT58"/>
-      <c r="PU58"/>
-      <c r="PV58"/>
-      <c r="PW58"/>
-      <c r="PX58"/>
-      <c r="PY58"/>
-      <c r="PZ58"/>
-      <c r="QA58"/>
-      <c r="QB58"/>
-      <c r="QC58"/>
-      <c r="QD58"/>
-      <c r="QE58"/>
-      <c r="QF58"/>
-      <c r="QG58"/>
-      <c r="QH58"/>
-      <c r="QI58"/>
-      <c r="QJ58"/>
-      <c r="QK58"/>
-      <c r="QL58"/>
-      <c r="QM58"/>
-      <c r="QN58"/>
-      <c r="QO58"/>
-      <c r="QP58"/>
-      <c r="QQ58"/>
-      <c r="QR58"/>
-      <c r="QS58"/>
-      <c r="QT58"/>
-      <c r="QU58"/>
-      <c r="QV58"/>
-      <c r="QW58"/>
-      <c r="QX58"/>
-      <c r="QY58"/>
-      <c r="QZ58"/>
-      <c r="RA58"/>
-      <c r="RB58"/>
-      <c r="RC58"/>
-      <c r="RD58"/>
-      <c r="RE58"/>
-      <c r="RF58"/>
-      <c r="RG58"/>
-      <c r="RH58"/>
-      <c r="RI58"/>
-      <c r="RJ58"/>
-      <c r="RK58"/>
-      <c r="RL58"/>
-      <c r="RM58"/>
-      <c r="RN58"/>
-      <c r="RO58"/>
-      <c r="RP58"/>
-      <c r="RQ58"/>
-      <c r="RR58"/>
-      <c r="RS58"/>
-      <c r="RT58"/>
-      <c r="RU58"/>
-      <c r="RV58"/>
-      <c r="RW58"/>
-      <c r="RX58"/>
-      <c r="RY58"/>
-      <c r="RZ58"/>
-      <c r="SA58"/>
-      <c r="SB58"/>
-      <c r="SC58"/>
-      <c r="SD58"/>
-      <c r="SE58"/>
-      <c r="SF58"/>
-      <c r="SG58"/>
-      <c r="SH58"/>
-      <c r="SI58"/>
-      <c r="SJ58"/>
-      <c r="SK58"/>
-      <c r="SL58"/>
-      <c r="SM58"/>
-      <c r="SN58"/>
-      <c r="SO58"/>
-      <c r="SP58"/>
-      <c r="SQ58"/>
-      <c r="SR58"/>
-      <c r="SS58"/>
-      <c r="ST58"/>
-      <c r="SU58"/>
-      <c r="SV58"/>
-      <c r="SW58"/>
-      <c r="SX58"/>
-      <c r="SY58"/>
-      <c r="SZ58"/>
-      <c r="TA58"/>
-      <c r="TB58"/>
-      <c r="TC58"/>
-      <c r="TD58"/>
-      <c r="TE58"/>
-      <c r="TF58"/>
-      <c r="TG58"/>
-      <c r="TH58"/>
-      <c r="TI58"/>
-      <c r="TJ58"/>
-      <c r="TK58"/>
-      <c r="TL58"/>
-      <c r="TM58"/>
-      <c r="TN58"/>
-      <c r="TO58"/>
-      <c r="TP58"/>
-      <c r="TQ58"/>
-      <c r="TR58"/>
-      <c r="TS58"/>
-      <c r="TT58"/>
-      <c r="TU58"/>
-      <c r="TV58"/>
-      <c r="TW58"/>
-      <c r="TX58"/>
-      <c r="TY58"/>
-      <c r="TZ58"/>
-      <c r="UA58"/>
-      <c r="UB58"/>
-      <c r="UC58"/>
-      <c r="UD58"/>
-      <c r="UE58"/>
-      <c r="UF58"/>
-      <c r="UG58"/>
-      <c r="UH58"/>
-      <c r="UI58"/>
-      <c r="UJ58"/>
-      <c r="UK58"/>
-      <c r="UL58"/>
-      <c r="UM58"/>
-      <c r="UN58"/>
-      <c r="UO58"/>
-      <c r="UP58"/>
-      <c r="UQ58"/>
-      <c r="UR58"/>
     </row>
-    <row r="59" spans="1:564" s="2" customFormat="1">
-      <c r="A59" s="49" t="s">
+    <row r="59" spans="1:564" s="57" customFormat="1">
+      <c r="A59" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="56" t="s">
         <v>744</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="56">
         <v>0</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="56">
         <v>1</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="56">
         <v>1</v>
       </c>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="49" t="s">
+      <c r="H59" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="49"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="49">
         <v>56</v>
       </c>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-      <c r="AM59"/>
-      <c r="AN59"/>
-      <c r="AO59"/>
-      <c r="AP59"/>
-      <c r="AQ59"/>
-      <c r="AR59"/>
-      <c r="AS59"/>
-      <c r="AT59"/>
-      <c r="AU59"/>
-      <c r="AV59"/>
-      <c r="AW59"/>
-      <c r="AX59"/>
-      <c r="AY59"/>
-      <c r="AZ59"/>
-      <c r="BA59"/>
-      <c r="BB59"/>
-      <c r="BC59"/>
-      <c r="BD59"/>
-      <c r="BE59"/>
-      <c r="BF59"/>
-      <c r="BG59"/>
-      <c r="BH59"/>
-      <c r="BI59"/>
-      <c r="BJ59"/>
-      <c r="BK59"/>
-      <c r="BL59"/>
-      <c r="BM59"/>
-      <c r="BN59"/>
-      <c r="BO59"/>
-      <c r="BP59"/>
-      <c r="BQ59"/>
-      <c r="BR59"/>
-      <c r="BS59"/>
-      <c r="BT59"/>
-      <c r="BU59"/>
-      <c r="BV59"/>
-      <c r="BW59"/>
-      <c r="BX59"/>
-      <c r="BY59"/>
-      <c r="BZ59"/>
-      <c r="CA59"/>
-      <c r="CB59"/>
-      <c r="CC59"/>
-      <c r="CD59"/>
-      <c r="CE59"/>
-      <c r="CF59"/>
-      <c r="CG59"/>
-      <c r="CH59"/>
-      <c r="CI59"/>
-      <c r="CJ59"/>
-      <c r="CK59"/>
-      <c r="CL59"/>
-      <c r="CM59"/>
-      <c r="CN59"/>
-      <c r="CO59"/>
-      <c r="CP59"/>
-      <c r="CQ59"/>
-      <c r="CR59"/>
-      <c r="CS59"/>
-      <c r="CT59"/>
-      <c r="CU59"/>
-      <c r="CV59"/>
-      <c r="CW59"/>
-      <c r="CX59"/>
-      <c r="CY59"/>
-      <c r="CZ59"/>
-      <c r="DA59"/>
-      <c r="DB59"/>
-      <c r="DC59"/>
-      <c r="DD59"/>
-      <c r="DE59"/>
-      <c r="DF59"/>
-      <c r="DG59"/>
-      <c r="DH59"/>
-      <c r="DI59"/>
-      <c r="DJ59"/>
-      <c r="DK59"/>
-      <c r="DL59"/>
-      <c r="DM59"/>
-      <c r="DN59"/>
-      <c r="DO59"/>
-      <c r="DP59"/>
-      <c r="DQ59"/>
-      <c r="DR59"/>
-      <c r="DS59"/>
-      <c r="DT59"/>
-      <c r="DU59"/>
-      <c r="DV59"/>
-      <c r="DW59"/>
-      <c r="DX59"/>
-      <c r="DY59"/>
-      <c r="DZ59"/>
-      <c r="EA59"/>
-      <c r="EB59"/>
-      <c r="EC59"/>
-      <c r="ED59"/>
-      <c r="EE59"/>
-      <c r="EF59"/>
-      <c r="EG59"/>
-      <c r="EH59"/>
-      <c r="EI59"/>
-      <c r="EJ59"/>
-      <c r="EK59"/>
-      <c r="EL59"/>
-      <c r="EM59"/>
-      <c r="EN59"/>
-      <c r="EO59"/>
-      <c r="EP59"/>
-      <c r="EQ59"/>
-      <c r="ER59"/>
-      <c r="ES59"/>
-      <c r="ET59"/>
-      <c r="EU59"/>
-      <c r="EV59"/>
-      <c r="EW59"/>
-      <c r="EX59"/>
-      <c r="EY59"/>
-      <c r="EZ59"/>
-      <c r="FA59"/>
-      <c r="FB59"/>
-      <c r="FC59"/>
-      <c r="FD59"/>
-      <c r="FE59"/>
-      <c r="FF59"/>
-      <c r="FG59"/>
-      <c r="FH59"/>
-      <c r="FI59"/>
-      <c r="FJ59"/>
-      <c r="FK59"/>
-      <c r="FL59"/>
-      <c r="FM59"/>
-      <c r="FN59"/>
-      <c r="FO59"/>
-      <c r="FP59"/>
-      <c r="FQ59"/>
-      <c r="FR59"/>
-      <c r="FS59"/>
-      <c r="FT59"/>
-      <c r="FU59"/>
-      <c r="FV59"/>
-      <c r="FW59"/>
-      <c r="FX59"/>
-      <c r="FY59"/>
-      <c r="FZ59"/>
-      <c r="GA59"/>
-      <c r="GB59"/>
-      <c r="GC59"/>
-      <c r="GD59"/>
-      <c r="GE59"/>
-      <c r="GF59"/>
-      <c r="GG59"/>
-      <c r="GH59"/>
-      <c r="GI59"/>
-      <c r="GJ59"/>
-      <c r="GK59"/>
-      <c r="GL59"/>
-      <c r="GM59"/>
-      <c r="GN59"/>
-      <c r="GO59"/>
-      <c r="GP59"/>
-      <c r="GQ59"/>
-      <c r="GR59"/>
-      <c r="GS59"/>
-      <c r="GT59"/>
-      <c r="GU59"/>
-      <c r="GV59"/>
-      <c r="GW59"/>
-      <c r="GX59"/>
-      <c r="GY59"/>
-      <c r="GZ59"/>
-      <c r="HA59"/>
-      <c r="HB59"/>
-      <c r="HC59"/>
-      <c r="HD59"/>
-      <c r="HE59"/>
-      <c r="HF59"/>
-      <c r="HG59"/>
-      <c r="HH59"/>
-      <c r="HI59"/>
-      <c r="HJ59"/>
-      <c r="HK59"/>
-      <c r="HL59"/>
-      <c r="HM59"/>
-      <c r="HN59"/>
-      <c r="HO59"/>
-      <c r="HP59"/>
-      <c r="HQ59"/>
-      <c r="HR59"/>
-      <c r="HS59"/>
-      <c r="HT59"/>
-      <c r="HU59"/>
-      <c r="HV59"/>
-      <c r="HW59"/>
-      <c r="HX59"/>
-      <c r="HY59"/>
-      <c r="HZ59"/>
-      <c r="IA59"/>
-      <c r="IB59"/>
-      <c r="IC59"/>
-      <c r="ID59"/>
-      <c r="IE59"/>
-      <c r="IF59"/>
-      <c r="IG59"/>
-      <c r="IH59"/>
-      <c r="II59"/>
-      <c r="IJ59"/>
-      <c r="IK59"/>
-      <c r="IL59"/>
-      <c r="IM59"/>
-      <c r="IN59"/>
-      <c r="IO59"/>
-      <c r="IP59"/>
-      <c r="IQ59"/>
-      <c r="IR59"/>
-      <c r="IS59"/>
-      <c r="IT59"/>
-      <c r="IU59"/>
-      <c r="IV59"/>
-      <c r="IW59"/>
-      <c r="IX59"/>
-      <c r="IY59"/>
-      <c r="IZ59"/>
-      <c r="JA59"/>
-      <c r="JB59"/>
-      <c r="JC59"/>
-      <c r="JD59"/>
-      <c r="JE59"/>
-      <c r="JF59"/>
-      <c r="JG59"/>
-      <c r="JH59"/>
-      <c r="JI59"/>
-      <c r="JJ59"/>
-      <c r="JK59"/>
-      <c r="JL59"/>
-      <c r="JM59"/>
-      <c r="JN59"/>
-      <c r="JO59"/>
-      <c r="JP59"/>
-      <c r="JQ59"/>
-      <c r="JR59"/>
-      <c r="JS59"/>
-      <c r="JT59"/>
-      <c r="JU59"/>
-      <c r="JV59"/>
-      <c r="JW59"/>
-      <c r="JX59"/>
-      <c r="JY59"/>
-      <c r="JZ59"/>
-      <c r="KA59"/>
-      <c r="KB59"/>
-      <c r="KC59"/>
-      <c r="KD59"/>
-      <c r="KE59"/>
-      <c r="KF59"/>
-      <c r="KG59"/>
-      <c r="KH59"/>
-      <c r="KI59"/>
-      <c r="KJ59"/>
-      <c r="KK59"/>
-      <c r="KL59"/>
-      <c r="KM59"/>
-      <c r="KN59"/>
-      <c r="KO59"/>
-      <c r="KP59"/>
-      <c r="KQ59"/>
-      <c r="KR59"/>
-      <c r="KS59"/>
-      <c r="KT59"/>
-      <c r="KU59"/>
-      <c r="KV59"/>
-      <c r="KW59"/>
-      <c r="KX59"/>
-      <c r="KY59"/>
-      <c r="KZ59"/>
-      <c r="LA59"/>
-      <c r="LB59"/>
-      <c r="LC59"/>
-      <c r="LD59"/>
-      <c r="LE59"/>
-      <c r="LF59"/>
-      <c r="LG59"/>
-      <c r="LH59"/>
-      <c r="LI59"/>
-      <c r="LJ59"/>
-      <c r="LK59"/>
-      <c r="LL59"/>
-      <c r="LM59"/>
-      <c r="LN59"/>
-      <c r="LO59"/>
-      <c r="LP59"/>
-      <c r="LQ59"/>
-      <c r="LR59"/>
-      <c r="LS59"/>
-      <c r="LT59"/>
-      <c r="LU59"/>
-      <c r="LV59"/>
-      <c r="LW59"/>
-      <c r="LX59"/>
-      <c r="LY59"/>
-      <c r="LZ59"/>
-      <c r="MA59"/>
-      <c r="MB59"/>
-      <c r="MC59"/>
-      <c r="MD59"/>
-      <c r="ME59"/>
-      <c r="MF59"/>
-      <c r="MG59"/>
-      <c r="MH59"/>
-      <c r="MI59"/>
-      <c r="MJ59"/>
-      <c r="MK59"/>
-      <c r="ML59"/>
-      <c r="MM59"/>
-      <c r="MN59"/>
-      <c r="MO59"/>
-      <c r="MP59"/>
-      <c r="MQ59"/>
-      <c r="MR59"/>
-      <c r="MS59"/>
-      <c r="MT59"/>
-      <c r="MU59"/>
-      <c r="MV59"/>
-      <c r="MW59"/>
-      <c r="MX59"/>
-      <c r="MY59"/>
-      <c r="MZ59"/>
-      <c r="NA59"/>
-      <c r="NB59"/>
-      <c r="NC59"/>
-      <c r="ND59"/>
-      <c r="NE59"/>
-      <c r="NF59"/>
-      <c r="NG59"/>
-      <c r="NH59"/>
-      <c r="NI59"/>
-      <c r="NJ59"/>
-      <c r="NK59"/>
-      <c r="NL59"/>
-      <c r="NM59"/>
-      <c r="NN59"/>
-      <c r="NO59"/>
-      <c r="NP59"/>
-      <c r="NQ59"/>
-      <c r="NR59"/>
-      <c r="NS59"/>
-      <c r="NT59"/>
-      <c r="NU59"/>
-      <c r="NV59"/>
-      <c r="NW59"/>
-      <c r="NX59"/>
-      <c r="NY59"/>
-      <c r="NZ59"/>
-      <c r="OA59"/>
-      <c r="OB59"/>
-      <c r="OC59"/>
-      <c r="OD59"/>
-      <c r="OE59"/>
-      <c r="OF59"/>
-      <c r="OG59"/>
-      <c r="OH59"/>
-      <c r="OI59"/>
-      <c r="OJ59"/>
-      <c r="OK59"/>
-      <c r="OL59"/>
-      <c r="OM59"/>
-      <c r="ON59"/>
-      <c r="OO59"/>
-      <c r="OP59"/>
-      <c r="OQ59"/>
-      <c r="OR59"/>
-      <c r="OS59"/>
-      <c r="OT59"/>
-      <c r="OU59"/>
-      <c r="OV59"/>
-      <c r="OW59"/>
-      <c r="OX59"/>
-      <c r="OY59"/>
-      <c r="OZ59"/>
-      <c r="PA59"/>
-      <c r="PB59"/>
-      <c r="PC59"/>
-      <c r="PD59"/>
-      <c r="PE59"/>
-      <c r="PF59"/>
-      <c r="PG59"/>
-      <c r="PH59"/>
-      <c r="PI59"/>
-      <c r="PJ59"/>
-      <c r="PK59"/>
-      <c r="PL59"/>
-      <c r="PM59"/>
-      <c r="PN59"/>
-      <c r="PO59"/>
-      <c r="PP59"/>
-      <c r="PQ59"/>
-      <c r="PR59"/>
-      <c r="PS59"/>
-      <c r="PT59"/>
-      <c r="PU59"/>
-      <c r="PV59"/>
-      <c r="PW59"/>
-      <c r="PX59"/>
-      <c r="PY59"/>
-      <c r="PZ59"/>
-      <c r="QA59"/>
-      <c r="QB59"/>
-      <c r="QC59"/>
-      <c r="QD59"/>
-      <c r="QE59"/>
-      <c r="QF59"/>
-      <c r="QG59"/>
-      <c r="QH59"/>
-      <c r="QI59"/>
-      <c r="QJ59"/>
-      <c r="QK59"/>
-      <c r="QL59"/>
-      <c r="QM59"/>
-      <c r="QN59"/>
-      <c r="QO59"/>
-      <c r="QP59"/>
-      <c r="QQ59"/>
-      <c r="QR59"/>
-      <c r="QS59"/>
-      <c r="QT59"/>
-      <c r="QU59"/>
-      <c r="QV59"/>
-      <c r="QW59"/>
-      <c r="QX59"/>
-      <c r="QY59"/>
-      <c r="QZ59"/>
-      <c r="RA59"/>
-      <c r="RB59"/>
-      <c r="RC59"/>
-      <c r="RD59"/>
-      <c r="RE59"/>
-      <c r="RF59"/>
-      <c r="RG59"/>
-      <c r="RH59"/>
-      <c r="RI59"/>
-      <c r="RJ59"/>
-      <c r="RK59"/>
-      <c r="RL59"/>
-      <c r="RM59"/>
-      <c r="RN59"/>
-      <c r="RO59"/>
-      <c r="RP59"/>
-      <c r="RQ59"/>
-      <c r="RR59"/>
-      <c r="RS59"/>
-      <c r="RT59"/>
-      <c r="RU59"/>
-      <c r="RV59"/>
-      <c r="RW59"/>
-      <c r="RX59"/>
-      <c r="RY59"/>
-      <c r="RZ59"/>
-      <c r="SA59"/>
-      <c r="SB59"/>
-      <c r="SC59"/>
-      <c r="SD59"/>
-      <c r="SE59"/>
-      <c r="SF59"/>
-      <c r="SG59"/>
-      <c r="SH59"/>
-      <c r="SI59"/>
-      <c r="SJ59"/>
-      <c r="SK59"/>
-      <c r="SL59"/>
-      <c r="SM59"/>
-      <c r="SN59"/>
-      <c r="SO59"/>
-      <c r="SP59"/>
-      <c r="SQ59"/>
-      <c r="SR59"/>
-      <c r="SS59"/>
-      <c r="ST59"/>
-      <c r="SU59"/>
-      <c r="SV59"/>
-      <c r="SW59"/>
-      <c r="SX59"/>
-      <c r="SY59"/>
-      <c r="SZ59"/>
-      <c r="TA59"/>
-      <c r="TB59"/>
-      <c r="TC59"/>
-      <c r="TD59"/>
-      <c r="TE59"/>
-      <c r="TF59"/>
-      <c r="TG59"/>
-      <c r="TH59"/>
-      <c r="TI59"/>
-      <c r="TJ59"/>
-      <c r="TK59"/>
-      <c r="TL59"/>
-      <c r="TM59"/>
-      <c r="TN59"/>
-      <c r="TO59"/>
-      <c r="TP59"/>
-      <c r="TQ59"/>
-      <c r="TR59"/>
-      <c r="TS59"/>
-      <c r="TT59"/>
-      <c r="TU59"/>
-      <c r="TV59"/>
-      <c r="TW59"/>
-      <c r="TX59"/>
-      <c r="TY59"/>
-      <c r="TZ59"/>
-      <c r="UA59"/>
-      <c r="UB59"/>
-      <c r="UC59"/>
-      <c r="UD59"/>
-      <c r="UE59"/>
-      <c r="UF59"/>
-      <c r="UG59"/>
-      <c r="UH59"/>
-      <c r="UI59"/>
-      <c r="UJ59"/>
-      <c r="UK59"/>
-      <c r="UL59"/>
-      <c r="UM59"/>
-      <c r="UN59"/>
-      <c r="UO59"/>
-      <c r="UP59"/>
-      <c r="UQ59"/>
-      <c r="UR59"/>
     </row>
-    <row r="60" spans="1:564" s="2" customFormat="1">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:564" s="53" customFormat="1">
+      <c r="A60" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="52" t="s">
         <v>658</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="52">
         <v>0</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="52">
         <v>1</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="52">
         <v>1</v>
       </c>
-      <c r="G60" s="49" t="s">
+      <c r="G60" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="49" t="s">
+      <c r="H60" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="49"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="49">
         <v>57</v>
       </c>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
-      <c r="AN60"/>
-      <c r="AO60"/>
-      <c r="AP60"/>
-      <c r="AQ60"/>
-      <c r="AR60"/>
-      <c r="AS60"/>
-      <c r="AT60"/>
-      <c r="AU60"/>
-      <c r="AV60"/>
-      <c r="AW60"/>
-      <c r="AX60"/>
-      <c r="AY60"/>
-      <c r="AZ60"/>
-      <c r="BA60"/>
-      <c r="BB60"/>
-      <c r="BC60"/>
-      <c r="BD60"/>
-      <c r="BE60"/>
-      <c r="BF60"/>
-      <c r="BG60"/>
-      <c r="BH60"/>
-      <c r="BI60"/>
-      <c r="BJ60"/>
-      <c r="BK60"/>
-      <c r="BL60"/>
-      <c r="BM60"/>
-      <c r="BN60"/>
-      <c r="BO60"/>
-      <c r="BP60"/>
-      <c r="BQ60"/>
-      <c r="BR60"/>
-      <c r="BS60"/>
-      <c r="BT60"/>
-      <c r="BU60"/>
-      <c r="BV60"/>
-      <c r="BW60"/>
-      <c r="BX60"/>
-      <c r="BY60"/>
-      <c r="BZ60"/>
-      <c r="CA60"/>
-      <c r="CB60"/>
-      <c r="CC60"/>
-      <c r="CD60"/>
-      <c r="CE60"/>
-      <c r="CF60"/>
-      <c r="CG60"/>
-      <c r="CH60"/>
-      <c r="CI60"/>
-      <c r="CJ60"/>
-      <c r="CK60"/>
-      <c r="CL60"/>
-      <c r="CM60"/>
-      <c r="CN60"/>
-      <c r="CO60"/>
-      <c r="CP60"/>
-      <c r="CQ60"/>
-      <c r="CR60"/>
-      <c r="CS60"/>
-      <c r="CT60"/>
-      <c r="CU60"/>
-      <c r="CV60"/>
-      <c r="CW60"/>
-      <c r="CX60"/>
-      <c r="CY60"/>
-      <c r="CZ60"/>
-      <c r="DA60"/>
-      <c r="DB60"/>
-      <c r="DC60"/>
-      <c r="DD60"/>
-      <c r="DE60"/>
-      <c r="DF60"/>
-      <c r="DG60"/>
-      <c r="DH60"/>
-      <c r="DI60"/>
-      <c r="DJ60"/>
-      <c r="DK60"/>
-      <c r="DL60"/>
-      <c r="DM60"/>
-      <c r="DN60"/>
-      <c r="DO60"/>
-      <c r="DP60"/>
-      <c r="DQ60"/>
-      <c r="DR60"/>
-      <c r="DS60"/>
-      <c r="DT60"/>
-      <c r="DU60"/>
-      <c r="DV60"/>
-      <c r="DW60"/>
-      <c r="DX60"/>
-      <c r="DY60"/>
-      <c r="DZ60"/>
-      <c r="EA60"/>
-      <c r="EB60"/>
-      <c r="EC60"/>
-      <c r="ED60"/>
-      <c r="EE60"/>
-      <c r="EF60"/>
-      <c r="EG60"/>
-      <c r="EH60"/>
-      <c r="EI60"/>
-      <c r="EJ60"/>
-      <c r="EK60"/>
-      <c r="EL60"/>
-      <c r="EM60"/>
-      <c r="EN60"/>
-      <c r="EO60"/>
-      <c r="EP60"/>
-      <c r="EQ60"/>
-      <c r="ER60"/>
-      <c r="ES60"/>
-      <c r="ET60"/>
-      <c r="EU60"/>
-      <c r="EV60"/>
-      <c r="EW60"/>
-      <c r="EX60"/>
-      <c r="EY60"/>
-      <c r="EZ60"/>
-      <c r="FA60"/>
-      <c r="FB60"/>
-      <c r="FC60"/>
-      <c r="FD60"/>
-      <c r="FE60"/>
-      <c r="FF60"/>
-      <c r="FG60"/>
-      <c r="FH60"/>
-      <c r="FI60"/>
-      <c r="FJ60"/>
-      <c r="FK60"/>
-      <c r="FL60"/>
-      <c r="FM60"/>
-      <c r="FN60"/>
-      <c r="FO60"/>
-      <c r="FP60"/>
-      <c r="FQ60"/>
-      <c r="FR60"/>
-      <c r="FS60"/>
-      <c r="FT60"/>
-      <c r="FU60"/>
-      <c r="FV60"/>
-      <c r="FW60"/>
-      <c r="FX60"/>
-      <c r="FY60"/>
-      <c r="FZ60"/>
-      <c r="GA60"/>
-      <c r="GB60"/>
-      <c r="GC60"/>
-      <c r="GD60"/>
-      <c r="GE60"/>
-      <c r="GF60"/>
-      <c r="GG60"/>
-      <c r="GH60"/>
-      <c r="GI60"/>
-      <c r="GJ60"/>
-      <c r="GK60"/>
-      <c r="GL60"/>
-      <c r="GM60"/>
-      <c r="GN60"/>
-      <c r="GO60"/>
-      <c r="GP60"/>
-      <c r="GQ60"/>
-      <c r="GR60"/>
-      <c r="GS60"/>
-      <c r="GT60"/>
-      <c r="GU60"/>
-      <c r="GV60"/>
-      <c r="GW60"/>
-      <c r="GX60"/>
-      <c r="GY60"/>
-      <c r="GZ60"/>
-      <c r="HA60"/>
-      <c r="HB60"/>
-      <c r="HC60"/>
-      <c r="HD60"/>
-      <c r="HE60"/>
-      <c r="HF60"/>
-      <c r="HG60"/>
-      <c r="HH60"/>
-      <c r="HI60"/>
-      <c r="HJ60"/>
-      <c r="HK60"/>
-      <c r="HL60"/>
-      <c r="HM60"/>
-      <c r="HN60"/>
-      <c r="HO60"/>
-      <c r="HP60"/>
-      <c r="HQ60"/>
-      <c r="HR60"/>
-      <c r="HS60"/>
-      <c r="HT60"/>
-      <c r="HU60"/>
-      <c r="HV60"/>
-      <c r="HW60"/>
-      <c r="HX60"/>
-      <c r="HY60"/>
-      <c r="HZ60"/>
-      <c r="IA60"/>
-      <c r="IB60"/>
-      <c r="IC60"/>
-      <c r="ID60"/>
-      <c r="IE60"/>
-      <c r="IF60"/>
-      <c r="IG60"/>
-      <c r="IH60"/>
-      <c r="II60"/>
-      <c r="IJ60"/>
-      <c r="IK60"/>
-      <c r="IL60"/>
-      <c r="IM60"/>
-      <c r="IN60"/>
-      <c r="IO60"/>
-      <c r="IP60"/>
-      <c r="IQ60"/>
-      <c r="IR60"/>
-      <c r="IS60"/>
-      <c r="IT60"/>
-      <c r="IU60"/>
-      <c r="IV60"/>
-      <c r="IW60"/>
-      <c r="IX60"/>
-      <c r="IY60"/>
-      <c r="IZ60"/>
-      <c r="JA60"/>
-      <c r="JB60"/>
-      <c r="JC60"/>
-      <c r="JD60"/>
-      <c r="JE60"/>
-      <c r="JF60"/>
-      <c r="JG60"/>
-      <c r="JH60"/>
-      <c r="JI60"/>
-      <c r="JJ60"/>
-      <c r="JK60"/>
-      <c r="JL60"/>
-      <c r="JM60"/>
-      <c r="JN60"/>
-      <c r="JO60"/>
-      <c r="JP60"/>
-      <c r="JQ60"/>
-      <c r="JR60"/>
-      <c r="JS60"/>
-      <c r="JT60"/>
-      <c r="JU60"/>
-      <c r="JV60"/>
-      <c r="JW60"/>
-      <c r="JX60"/>
-      <c r="JY60"/>
-      <c r="JZ60"/>
-      <c r="KA60"/>
-      <c r="KB60"/>
-      <c r="KC60"/>
-      <c r="KD60"/>
-      <c r="KE60"/>
-      <c r="KF60"/>
-      <c r="KG60"/>
-      <c r="KH60"/>
-      <c r="KI60"/>
-      <c r="KJ60"/>
-      <c r="KK60"/>
-      <c r="KL60"/>
-      <c r="KM60"/>
-      <c r="KN60"/>
-      <c r="KO60"/>
-      <c r="KP60"/>
-      <c r="KQ60"/>
-      <c r="KR60"/>
-      <c r="KS60"/>
-      <c r="KT60"/>
-      <c r="KU60"/>
-      <c r="KV60"/>
-      <c r="KW60"/>
-      <c r="KX60"/>
-      <c r="KY60"/>
-      <c r="KZ60"/>
-      <c r="LA60"/>
-      <c r="LB60"/>
-      <c r="LC60"/>
-      <c r="LD60"/>
-      <c r="LE60"/>
-      <c r="LF60"/>
-      <c r="LG60"/>
-      <c r="LH60"/>
-      <c r="LI60"/>
-      <c r="LJ60"/>
-      <c r="LK60"/>
-      <c r="LL60"/>
-      <c r="LM60"/>
-      <c r="LN60"/>
-      <c r="LO60"/>
-      <c r="LP60"/>
-      <c r="LQ60"/>
-      <c r="LR60"/>
-      <c r="LS60"/>
-      <c r="LT60"/>
-      <c r="LU60"/>
-      <c r="LV60"/>
-      <c r="LW60"/>
-      <c r="LX60"/>
-      <c r="LY60"/>
-      <c r="LZ60"/>
-      <c r="MA60"/>
-      <c r="MB60"/>
-      <c r="MC60"/>
-      <c r="MD60"/>
-      <c r="ME60"/>
-      <c r="MF60"/>
-      <c r="MG60"/>
-      <c r="MH60"/>
-      <c r="MI60"/>
-      <c r="MJ60"/>
-      <c r="MK60"/>
-      <c r="ML60"/>
-      <c r="MM60"/>
-      <c r="MN60"/>
-      <c r="MO60"/>
-      <c r="MP60"/>
-      <c r="MQ60"/>
-      <c r="MR60"/>
-      <c r="MS60"/>
-      <c r="MT60"/>
-      <c r="MU60"/>
-      <c r="MV60"/>
-      <c r="MW60"/>
-      <c r="MX60"/>
-      <c r="MY60"/>
-      <c r="MZ60"/>
-      <c r="NA60"/>
-      <c r="NB60"/>
-      <c r="NC60"/>
-      <c r="ND60"/>
-      <c r="NE60"/>
-      <c r="NF60"/>
-      <c r="NG60"/>
-      <c r="NH60"/>
-      <c r="NI60"/>
-      <c r="NJ60"/>
-      <c r="NK60"/>
-      <c r="NL60"/>
-      <c r="NM60"/>
-      <c r="NN60"/>
-      <c r="NO60"/>
-      <c r="NP60"/>
-      <c r="NQ60"/>
-      <c r="NR60"/>
-      <c r="NS60"/>
-      <c r="NT60"/>
-      <c r="NU60"/>
-      <c r="NV60"/>
-      <c r="NW60"/>
-      <c r="NX60"/>
-      <c r="NY60"/>
-      <c r="NZ60"/>
-      <c r="OA60"/>
-      <c r="OB60"/>
-      <c r="OC60"/>
-      <c r="OD60"/>
-      <c r="OE60"/>
-      <c r="OF60"/>
-      <c r="OG60"/>
-      <c r="OH60"/>
-      <c r="OI60"/>
-      <c r="OJ60"/>
-      <c r="OK60"/>
-      <c r="OL60"/>
-      <c r="OM60"/>
-      <c r="ON60"/>
-      <c r="OO60"/>
-      <c r="OP60"/>
-      <c r="OQ60"/>
-      <c r="OR60"/>
-      <c r="OS60"/>
-      <c r="OT60"/>
-      <c r="OU60"/>
-      <c r="OV60"/>
-      <c r="OW60"/>
-      <c r="OX60"/>
-      <c r="OY60"/>
-      <c r="OZ60"/>
-      <c r="PA60"/>
-      <c r="PB60"/>
-      <c r="PC60"/>
-      <c r="PD60"/>
-      <c r="PE60"/>
-      <c r="PF60"/>
-      <c r="PG60"/>
-      <c r="PH60"/>
-      <c r="PI60"/>
-      <c r="PJ60"/>
-      <c r="PK60"/>
-      <c r="PL60"/>
-      <c r="PM60"/>
-      <c r="PN60"/>
-      <c r="PO60"/>
-      <c r="PP60"/>
-      <c r="PQ60"/>
-      <c r="PR60"/>
-      <c r="PS60"/>
-      <c r="PT60"/>
-      <c r="PU60"/>
-      <c r="PV60"/>
-      <c r="PW60"/>
-      <c r="PX60"/>
-      <c r="PY60"/>
-      <c r="PZ60"/>
-      <c r="QA60"/>
-      <c r="QB60"/>
-      <c r="QC60"/>
-      <c r="QD60"/>
-      <c r="QE60"/>
-      <c r="QF60"/>
-      <c r="QG60"/>
-      <c r="QH60"/>
-      <c r="QI60"/>
-      <c r="QJ60"/>
-      <c r="QK60"/>
-      <c r="QL60"/>
-      <c r="QM60"/>
-      <c r="QN60"/>
-      <c r="QO60"/>
-      <c r="QP60"/>
-      <c r="QQ60"/>
-      <c r="QR60"/>
-      <c r="QS60"/>
-      <c r="QT60"/>
-      <c r="QU60"/>
-      <c r="QV60"/>
-      <c r="QW60"/>
-      <c r="QX60"/>
-      <c r="QY60"/>
-      <c r="QZ60"/>
-      <c r="RA60"/>
-      <c r="RB60"/>
-      <c r="RC60"/>
-      <c r="RD60"/>
-      <c r="RE60"/>
-      <c r="RF60"/>
-      <c r="RG60"/>
-      <c r="RH60"/>
-      <c r="RI60"/>
-      <c r="RJ60"/>
-      <c r="RK60"/>
-      <c r="RL60"/>
-      <c r="RM60"/>
-      <c r="RN60"/>
-      <c r="RO60"/>
-      <c r="RP60"/>
-      <c r="RQ60"/>
-      <c r="RR60"/>
-      <c r="RS60"/>
-      <c r="RT60"/>
-      <c r="RU60"/>
-      <c r="RV60"/>
-      <c r="RW60"/>
-      <c r="RX60"/>
-      <c r="RY60"/>
-      <c r="RZ60"/>
-      <c r="SA60"/>
-      <c r="SB60"/>
-      <c r="SC60"/>
-      <c r="SD60"/>
-      <c r="SE60"/>
-      <c r="SF60"/>
-      <c r="SG60"/>
-      <c r="SH60"/>
-      <c r="SI60"/>
-      <c r="SJ60"/>
-      <c r="SK60"/>
-      <c r="SL60"/>
-      <c r="SM60"/>
-      <c r="SN60"/>
-      <c r="SO60"/>
-      <c r="SP60"/>
-      <c r="SQ60"/>
-      <c r="SR60"/>
-      <c r="SS60"/>
-      <c r="ST60"/>
-      <c r="SU60"/>
-      <c r="SV60"/>
-      <c r="SW60"/>
-      <c r="SX60"/>
-      <c r="SY60"/>
-      <c r="SZ60"/>
-      <c r="TA60"/>
-      <c r="TB60"/>
-      <c r="TC60"/>
-      <c r="TD60"/>
-      <c r="TE60"/>
-      <c r="TF60"/>
-      <c r="TG60"/>
-      <c r="TH60"/>
-      <c r="TI60"/>
-      <c r="TJ60"/>
-      <c r="TK60"/>
-      <c r="TL60"/>
-      <c r="TM60"/>
-      <c r="TN60"/>
-      <c r="TO60"/>
-      <c r="TP60"/>
-      <c r="TQ60"/>
-      <c r="TR60"/>
-      <c r="TS60"/>
-      <c r="TT60"/>
-      <c r="TU60"/>
-      <c r="TV60"/>
-      <c r="TW60"/>
-      <c r="TX60"/>
-      <c r="TY60"/>
-      <c r="TZ60"/>
-      <c r="UA60"/>
-      <c r="UB60"/>
-      <c r="UC60"/>
-      <c r="UD60"/>
-      <c r="UE60"/>
-      <c r="UF60"/>
-      <c r="UG60"/>
-      <c r="UH60"/>
-      <c r="UI60"/>
-      <c r="UJ60"/>
-      <c r="UK60"/>
-      <c r="UL60"/>
-      <c r="UM60"/>
-      <c r="UN60"/>
-      <c r="UO60"/>
-      <c r="UP60"/>
-      <c r="UQ60"/>
-      <c r="UR60"/>
     </row>
     <row r="61" spans="1:564" s="2" customFormat="1">
       <c r="A61" s="18" t="s">
@@ -45538,92 +42268,92 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="49" t="s">
+    <row r="118" spans="1:10" s="55" customFormat="1">
+      <c r="A118" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="49" t="s">
+      <c r="B118" s="54" t="s">
         <v>741</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D118" s="49">
-        <v>0</v>
-      </c>
-      <c r="E118" s="49">
+      <c r="D118" s="54">
         <v>1</v>
       </c>
-      <c r="F118" s="49">
+      <c r="E118" s="54">
         <v>1</v>
       </c>
-      <c r="G118" s="49" t="s">
+      <c r="F118" s="54">
+        <v>1</v>
+      </c>
+      <c r="G118" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="49" t="s">
+      <c r="H118" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I118" s="49"/>
+      <c r="I118" s="54"/>
       <c r="J118" s="49">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="49" t="s">
+    <row r="119" spans="1:10" s="57" customFormat="1">
+      <c r="A119" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="56" t="s">
         <v>691</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="49">
+      <c r="D119" s="56">
         <v>0</v>
       </c>
-      <c r="E119" s="49">
+      <c r="E119" s="56">
         <v>1</v>
       </c>
-      <c r="F119" s="49">
+      <c r="F119" s="56">
         <v>1</v>
       </c>
-      <c r="G119" s="49" t="s">
+      <c r="G119" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="49" t="s">
+      <c r="H119" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I119" s="49"/>
+      <c r="I119" s="56"/>
       <c r="J119" s="49">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="49" t="s">
+    <row r="120" spans="1:10" s="53" customFormat="1">
+      <c r="A120" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="49" t="s">
+      <c r="B120" s="52" t="s">
         <v>657</v>
       </c>
-      <c r="C120" s="49" t="s">
+      <c r="C120" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="49">
+      <c r="D120" s="52">
         <v>0</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="52">
         <v>1</v>
       </c>
-      <c r="F120" s="49">
+      <c r="F120" s="52">
         <v>1</v>
       </c>
-      <c r="G120" s="49" t="s">
+      <c r="G120" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H120" s="49" t="s">
+      <c r="H120" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I120" s="49"/>
+      <c r="I120" s="52"/>
       <c r="J120" s="49">
         <v>117</v>
       </c>
@@ -45760,8 +42490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ181"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -45888,7 +42618,7 @@
         <v>704</v>
       </c>
       <c r="D3" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" s="19">
         <v>1.4</v>
@@ -46645,7 +43375,7 @@
         <v>296</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -46711,7 +43441,7 @@
         <v>298</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
@@ -48622,28 +45352,28 @@
       <c r="AZ43" s="9"/>
     </row>
     <row r="44" spans="1:52" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="D44" s="19">
+      <c r="C44" s="58" t="s">
+        <v>806</v>
+      </c>
+      <c r="D44" s="58">
         <v>1</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="58">
         <v>1.4</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="58">
         <v>0.6</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -48688,28 +45418,28 @@
       <c r="AZ44" s="9"/>
     </row>
     <row r="45" spans="1:52" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B45" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="D45" s="19">
+      <c r="C45" s="58" t="s">
+        <v>807</v>
+      </c>
+      <c r="D45" s="58">
         <v>1</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="58">
         <v>1.4</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="58">
         <v>0.6</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
@@ -48754,28 +45484,28 @@
       <c r="AZ45" s="9"/>
     </row>
     <row r="46" spans="1:52" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B46" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C46" s="58" t="s">
+        <v>808</v>
+      </c>
+      <c r="D46" s="58">
         <v>1</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="58">
         <v>1.4</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="58">
         <v>0.6</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
@@ -48820,32 +45550,32 @@
       <c r="AZ46" s="9"/>
     </row>
     <row r="47" spans="1:52" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="60">
         <v>1</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="60">
         <v>1.4</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="60">
         <v>0.6</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="34" t="s">
+      <c r="G47" s="60"/>
+      <c r="H47" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="62">
         <v>19234091</v>
       </c>
-      <c r="J47" s="23"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="35"/>
       <c r="L47" s="23"/>
       <c r="M47" s="22"/>
@@ -48890,30 +45620,30 @@
       <c r="AZ47" s="9"/>
     </row>
     <row r="48" spans="1:52" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B48" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="59" t="s">
         <v>751</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="60">
         <v>1</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="60">
         <v>1.4</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="60">
         <v>0.6</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="25">
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="62">
         <v>19631653</v>
       </c>
-      <c r="J48" s="23"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="35"/>
       <c r="L48" s="23"/>
       <c r="M48" s="22"/>
@@ -48958,30 +45688,30 @@
       <c r="AZ48" s="9"/>
     </row>
     <row r="49" spans="1:52" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="58" t="s">
+        <v>752</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>752</v>
-      </c>
-      <c r="D49" s="23">
+      <c r="C49" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="D49" s="60">
         <v>1</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="60">
         <v>1.4</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="60">
         <v>0.6</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="36">
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="63">
         <v>10591022</v>
       </c>
-      <c r="J49" s="23"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="35"/>
       <c r="L49" s="23"/>
       <c r="M49" s="22"/>
@@ -49226,7 +45956,7 @@
         <v>403</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
@@ -50489,7 +47219,7 @@
         <v>448</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D70" s="23">
         <v>1</v>
@@ -51696,7 +48426,7 @@
         <v>492</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D88" s="23">
         <v>1</v>
@@ -52146,7 +48876,7 @@
         <v>505</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D94" s="23">
         <v>1</v>
@@ -52222,7 +48952,7 @@
         <v>508</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D95" s="23">
         <v>1</v>
@@ -52770,7 +49500,7 @@
         <v>540</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D105" s="23">
         <v>1</v>
@@ -52891,7 +49621,7 @@
         <v>549</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D108" s="23">
         <v>1</v>
@@ -52936,7 +49666,7 @@
         <v>551</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D109" s="23">
         <v>1</v>
@@ -53092,7 +49822,7 @@
         <v>562</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D112" s="22">
         <v>1</v>
@@ -55350,7 +52080,7 @@
         <v>311</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C145" s="22" t="s">
         <v>552</v>
@@ -55428,7 +52158,7 @@
         <v>311</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C146" s="22" t="s">
         <v>555</v>
@@ -55504,7 +52234,7 @@
         <v>311</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C147" s="23" t="s">
         <v>559</v>
@@ -55544,7 +52274,7 @@
         <v>311</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C148" s="23" t="s">
         <v>563</v>
@@ -55581,7 +52311,7 @@
         <v>311</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C149" s="22" t="s">
         <v>566</v>
@@ -55618,7 +52348,7 @@
         <v>311</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C150" s="23" t="s">
         <v>571</v>
@@ -55655,7 +52385,7 @@
         <v>311</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>574</v>
@@ -55694,7 +52424,7 @@
         <v>311</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C152" s="23" t="s">
         <v>577</v>
@@ -55731,7 +52461,7 @@
         <v>311</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>579</v>
@@ -55768,7 +52498,7 @@
         <v>311</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C154" s="22" t="s">
         <v>581</v>
@@ -55805,7 +52535,7 @@
         <v>311</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C155" s="23" t="s">
         <v>584</v>
@@ -55844,7 +52574,7 @@
         <v>311</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C156" s="23" t="s">
         <v>586</v>
@@ -55881,7 +52611,7 @@
         <v>311</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C157" s="23" t="s">
         <v>590</v>
@@ -55920,7 +52650,7 @@
         <v>311</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C158" s="23" t="s">
         <v>593</v>
@@ -55957,10 +52687,10 @@
         <v>311</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D159" s="23">
         <v>1</v>
@@ -55994,7 +52724,7 @@
         <v>311</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C160" s="23" t="s">
         <v>598</v>
@@ -56031,7 +52761,7 @@
         <v>311</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C161" s="22" t="s">
         <v>601</v>
@@ -56070,7 +52800,7 @@
         <v>311</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C162" s="23" t="s">
         <v>605</v>
@@ -56107,7 +52837,7 @@
         <v>311</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>610</v>
@@ -56142,7 +52872,7 @@
         <v>311</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>613</v>
@@ -56177,7 +52907,7 @@
         <v>311</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>615</v>
@@ -56214,7 +52944,7 @@
         <v>311</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C166" s="22" t="s">
         <v>619</v>
@@ -56251,7 +52981,7 @@
         <v>311</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C167" s="23" t="s">
         <v>623</v>
@@ -56280,7 +53010,7 @@
         <v>311</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>626</v>
@@ -56315,10 +53045,10 @@
         <v>311</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D169" s="23">
         <v>0</v>
@@ -56352,7 +53082,7 @@
         <v>311</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C170" s="23" t="s">
         <v>629</v>
@@ -56389,7 +53119,7 @@
         <v>311</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C171" s="23" t="s">
         <v>633</v>
@@ -56424,7 +53154,7 @@
         <v>311</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C172" s="22" t="s">
         <v>635</v>
@@ -56461,7 +53191,7 @@
         <v>311</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>638</v>
@@ -56498,10 +53228,10 @@
         <v>311</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D174" s="23">
         <v>1</v>
@@ -56535,7 +53265,7 @@
         <v>311</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C175" s="23" t="s">
         <v>642</v>
@@ -56572,7 +53302,7 @@
         <v>311</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C176" s="23" t="s">
         <v>645</v>
@@ -56609,7 +53339,7 @@
         <v>311</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C177" s="23" t="s">
         <v>647</v>
@@ -56648,7 +53378,7 @@
         <v>311</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C178" s="23" t="s">
         <v>649</v>
@@ -56685,7 +53415,7 @@
         <v>311</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C179" s="23" t="s">
         <v>652</v>
@@ -56722,7 +53452,7 @@
         <v>311</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C180" s="22" t="s">
         <v>654</v>
